--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_24_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1707442.436720099</v>
+        <v>1683738.964096967</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4622922.901379752</v>
+        <v>4622922.90137975</v>
       </c>
     </row>
     <row r="9">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>72.02148851052239</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0524962529722</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.0277763655881</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.84049789475749</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>166.0844674480336</v>
       </c>
       <c r="H13" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.11646220283797</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>91.56968311387364</v>
       </c>
       <c r="S13" t="n">
         <v>190.7912950162003</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.07687466578207</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>168.7711108614457</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.0524962529722</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>200.8790493911448</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0844674480336</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>52.60137974881673</v>
+        <v>74.60817001087838</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>91.56968311387364</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.7912950162003</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7995839928288</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2150377977404</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>295.9470187896418</v>
+        <v>259.0947150951839</v>
       </c>
       <c r="I17" t="n">
-        <v>46.61846331087239</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>251.0056336068635</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>292.7009848626311</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>135.0694376048751</v>
       </c>
       <c r="H18" t="n">
-        <v>90.2726232388875</v>
+        <v>90.27262323888752</v>
       </c>
       <c r="I18" t="n">
-        <v>11.10047261924873</v>
+        <v>11.10047261924875</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.280721202951</v>
+        <v>91.77322031613059</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0844674480336</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>91.56968311387364</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>190.7912950162003</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.0524962529722</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>295.9470187896418</v>
       </c>
       <c r="I20" t="n">
-        <v>46.61846331087239</v>
+        <v>46.61846331087241</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>112.1676968247093</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0056336068635</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>314.5213260887792</v>
+        <v>12.96332983504945</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>135.0694376048751</v>
       </c>
       <c r="H21" t="n">
-        <v>90.2726232388875</v>
+        <v>90.27262323888752</v>
       </c>
       <c r="I21" t="n">
-        <v>11.10047261924873</v>
+        <v>11.10047261924875</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>146.855695210511</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0844674480336</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.11646220283797</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>91.56968311387364</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.7912950162003</v>
+        <v>116.3777045267956</v>
       </c>
       <c r="T22" t="n">
         <v>219.7995839928288</v>
@@ -2298,16 +2298,16 @@
         <v>286.2150377977404</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>411.0524962529722</v>
       </c>
       <c r="H23" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>46.61846331087241</v>
+        <v>45.97486703432914</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>53.45382524244616</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>45.65977590919641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>142.2807212029508</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>91.56968311387365</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T25" t="n">
         <v>219.7995839928288</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>290.0575781491602</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.0524962529722</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>46.61846331087241</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>77.44805419607442</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>219.7995839928288</v>
       </c>
       <c r="U28" t="n">
-        <v>281.2229749160294</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>52.60137974881653</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>139.0655716883717</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.0524962529722</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>46.61846331087241</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>112.1676968247093</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>86.96421009008448</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>143.7844893395886</v>
       </c>
       <c r="G31" t="n">
         <v>166.0844674480336</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I31" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>10.23120243028758</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7995839928288</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.0524962529722</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>271.8327335290484</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>112.1676968247093</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>134.9487133897069</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0056336068635</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0844674480336</v>
       </c>
       <c r="H34" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>62.9774176398565</v>
       </c>
       <c r="W34" t="n">
-        <v>143.858185109457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.0524962529722</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>45.97486703432914</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.65509851300055</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0056336068635</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>105.4183896925327</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T37" t="n">
-        <v>70.81400521815833</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U37" t="n">
         <v>286.2150377977404</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>295.9470187896418</v>
+        <v>129.2751048171654</v>
       </c>
       <c r="I38" t="n">
-        <v>46.61846331087241</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>112.1676968247093</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0056336068635</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>127.460302623175</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0844674480336</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>91.56968311387365</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>116.3777045267956</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>52.28850199558383</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.0524962529722</v>
       </c>
       <c r="H41" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>112.1676968247093</v>
+        <v>13.2854656794804</v>
       </c>
       <c r="T41" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0056336068635</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>15.02415512553884</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>90.27262323888752</v>
       </c>
       <c r="I42" t="n">
-        <v>11.10047261924878</v>
+        <v>11.10047261924875</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.13702156657188</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>116.3777045267951</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7995839928288</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.494620080164504</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>195.2279988784881</v>
       </c>
       <c r="G44" t="n">
         <v>411.0524962529722</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>112.1676968247093</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0056336068635</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0844674480336</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>190.7912950162003</v>
+        <v>99.12690545865875</v>
       </c>
       <c r="T46" t="n">
         <v>219.7995839928288</v>
@@ -4194,10 +4194,10 @@
         <v>286.2150377977404</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>76.07909391228293</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2015.94966889103</v>
+        <v>1229.059766312104</v>
       </c>
       <c r="C11" t="n">
-        <v>1646.987151950618</v>
+        <v>860.0972493716927</v>
       </c>
       <c r="D11" t="n">
-        <v>1574.238173657161</v>
+        <v>860.0972493716927</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.449921058917</v>
+        <v>474.3089967734484</v>
       </c>
       <c r="F11" t="n">
-        <v>777.4640162693097</v>
+        <v>63.32309198384087</v>
       </c>
       <c r="G11" t="n">
-        <v>362.2594745996407</v>
+        <v>63.32309198384087</v>
       </c>
       <c r="H11" t="n">
         <v>63.32309198384087</v>
@@ -5068,25 +5068,25 @@
         <v>3166.154599192043</v>
       </c>
       <c r="S11" t="n">
-        <v>3166.154599192043</v>
+        <v>3063.096239226803</v>
       </c>
       <c r="T11" t="n">
-        <v>3166.154599192043</v>
+        <v>3063.096239226803</v>
       </c>
       <c r="U11" t="n">
-        <v>3166.154599192043</v>
+        <v>3063.096239226803</v>
       </c>
       <c r="V11" t="n">
-        <v>3166.154599192043</v>
+        <v>2732.033351883232</v>
       </c>
       <c r="W11" t="n">
-        <v>3166.154599192043</v>
+        <v>2379.264696613118</v>
       </c>
       <c r="X11" t="n">
-        <v>2792.688840930964</v>
+        <v>2005.798938352038</v>
       </c>
       <c r="Y11" t="n">
-        <v>2402.549508955152</v>
+        <v>1615.659606376226</v>
       </c>
     </row>
     <row r="12">
@@ -5120,10 +5120,10 @@
         <v>63.32309198384087</v>
       </c>
       <c r="J12" t="n">
-        <v>150.4559831998261</v>
+        <v>251.7593199168289</v>
       </c>
       <c r="K12" t="n">
-        <v>377.5347973355917</v>
+        <v>478.8381340525946</v>
       </c>
       <c r="L12" t="n">
         <v>830.496164079495</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1090.792569628616</v>
+        <v>844.9410437357341</v>
       </c>
       <c r="C13" t="n">
-        <v>921.8563867007086</v>
+        <v>676.0048608078272</v>
       </c>
       <c r="D13" t="n">
-        <v>771.7397472883729</v>
+        <v>525.8882213954914</v>
       </c>
       <c r="E13" t="n">
-        <v>623.8266537059798</v>
+        <v>377.9751278130984</v>
       </c>
       <c r="F13" t="n">
-        <v>476.9367062080694</v>
+        <v>231.085180315188</v>
       </c>
       <c r="G13" t="n">
-        <v>309.1746178767222</v>
+        <v>63.32309198384087</v>
       </c>
       <c r="H13" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384087</v>
       </c>
       <c r="I13" t="n">
         <v>63.32309198384087</v>
@@ -5223,28 +5223,28 @@
         <v>1866.534462590763</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.534462590763</v>
+        <v>1774.03983318281</v>
       </c>
       <c r="S13" t="n">
-        <v>1673.81598277642</v>
+        <v>1581.321353368467</v>
       </c>
       <c r="T13" t="n">
-        <v>1673.81598277642</v>
+        <v>1581.321353368467</v>
       </c>
       <c r="U13" t="n">
-        <v>1384.709883990823</v>
+        <v>1581.321353368467</v>
       </c>
       <c r="V13" t="n">
-        <v>1130.025395784936</v>
+        <v>1581.321353368467</v>
       </c>
       <c r="W13" t="n">
-        <v>1130.025395784936</v>
+        <v>1291.904183331506</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.025395784936</v>
+        <v>1247.382087709504</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.025395784936</v>
+        <v>1026.589508565974</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1722.257458253157</v>
+        <v>1182.819071755729</v>
       </c>
       <c r="C14" t="n">
-        <v>1353.294941312745</v>
+        <v>1182.819071755729</v>
       </c>
       <c r="D14" t="n">
-        <v>995.0292427059946</v>
+        <v>824.5533731489787</v>
       </c>
       <c r="E14" t="n">
-        <v>995.0292427059946</v>
+        <v>824.5533731489787</v>
       </c>
       <c r="F14" t="n">
         <v>824.5533731489787</v>
@@ -5272,16 +5272,16 @@
         <v>409.3488314793098</v>
       </c>
       <c r="H14" t="n">
-        <v>110.41244886351</v>
+        <v>110.4124488635099</v>
       </c>
       <c r="I14" t="n">
-        <v>63.32309198384087</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J14" t="n">
-        <v>241.214221683671</v>
+        <v>241.2142216836713</v>
       </c>
       <c r="K14" t="n">
-        <v>558.5654298314701</v>
+        <v>558.5654298314704</v>
       </c>
       <c r="L14" t="n">
         <v>989.1694275101599</v>
@@ -5293,37 +5293,37 @@
         <v>2023.647210189806</v>
       </c>
       <c r="O14" t="n">
-        <v>2504.806639967976</v>
+        <v>2504.806639967975</v>
       </c>
       <c r="P14" t="n">
-        <v>2880.96408040785</v>
+        <v>2880.964080407849</v>
       </c>
       <c r="Q14" t="n">
-        <v>3115.26990612054</v>
+        <v>3115.269906120539</v>
       </c>
       <c r="R14" t="n">
-        <v>3166.154599192043</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="S14" t="n">
-        <v>3166.154599192043</v>
+        <v>3052.8538953287</v>
       </c>
       <c r="T14" t="n">
-        <v>3166.154599192043</v>
+        <v>2846.297917107474</v>
       </c>
       <c r="U14" t="n">
-        <v>3166.154599192043</v>
+        <v>2643.389786409348</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.091711848473</v>
+        <v>2312.326899065777</v>
       </c>
       <c r="W14" t="n">
-        <v>2482.323056578358</v>
+        <v>1959.558243795663</v>
       </c>
       <c r="X14" t="n">
-        <v>2108.857298317278</v>
+        <v>1959.558243795663</v>
       </c>
       <c r="Y14" t="n">
-        <v>2108.857298317278</v>
+        <v>1569.418911819851</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H15" t="n">
-        <v>74.53569058914262</v>
+        <v>74.5356905891426</v>
       </c>
       <c r="I15" t="n">
-        <v>63.32309198384087</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J15" t="n">
-        <v>150.4559831998261</v>
+        <v>251.7593199168289</v>
       </c>
       <c r="K15" t="n">
-        <v>377.5347973355917</v>
+        <v>478.8381340525946</v>
       </c>
       <c r="L15" t="n">
-        <v>729.1928273624922</v>
+        <v>830.496164079495</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.918029938436</v>
+        <v>1260.221366655439</v>
       </c>
       <c r="N15" t="n">
-        <v>1614.425424855065</v>
+        <v>1715.728761572067</v>
       </c>
       <c r="O15" t="n">
-        <v>2008.905905412158</v>
+        <v>2110.209242129161</v>
       </c>
       <c r="P15" t="n">
-        <v>2306.178202829446</v>
+        <v>2407.481539546449</v>
       </c>
       <c r="Q15" t="n">
         <v>2556.281001408039</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.4557988008275</v>
+        <v>920.3028316255103</v>
       </c>
       <c r="C16" t="n">
-        <v>116.4557988008275</v>
+        <v>751.3666486976034</v>
       </c>
       <c r="D16" t="n">
-        <v>116.4557988008275</v>
+        <v>601.2500092852677</v>
       </c>
       <c r="E16" t="n">
-        <v>116.4557988008275</v>
+        <v>453.3369157028745</v>
       </c>
       <c r="F16" t="n">
-        <v>116.4557988008275</v>
+        <v>306.4469682049642</v>
       </c>
       <c r="G16" t="n">
-        <v>116.4557988008275</v>
+        <v>138.684879873617</v>
       </c>
       <c r="H16" t="n">
-        <v>116.4557988008275</v>
+        <v>138.684879873617</v>
       </c>
       <c r="I16" t="n">
-        <v>63.32309198384087</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J16" t="n">
         <v>104.3399918147189</v>
@@ -5460,28 +5460,28 @@
         <v>1866.534462590763</v>
       </c>
       <c r="R16" t="n">
-        <v>1774.03983318281</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S16" t="n">
-        <v>1581.321353368467</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="T16" t="n">
-        <v>1359.301571557528</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="U16" t="n">
-        <v>1070.195472771932</v>
+        <v>1577.428363805167</v>
       </c>
       <c r="V16" t="n">
-        <v>815.5109845660451</v>
+        <v>1322.74387559928</v>
       </c>
       <c r="W16" t="n">
-        <v>526.0938145290845</v>
+        <v>1322.74387559928</v>
       </c>
       <c r="X16" t="n">
-        <v>298.1042636310672</v>
+        <v>1322.74387559928</v>
       </c>
       <c r="Y16" t="n">
-        <v>298.1042636310672</v>
+        <v>1101.95129645575</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1189.297253209329</v>
+        <v>1463.249045750089</v>
       </c>
       <c r="C17" t="n">
-        <v>820.3347362689174</v>
+        <v>1094.286528809678</v>
       </c>
       <c r="D17" t="n">
-        <v>820.3347362689174</v>
+        <v>736.0208302029271</v>
       </c>
       <c r="E17" t="n">
-        <v>820.3347362689174</v>
+        <v>736.0208302029271</v>
       </c>
       <c r="F17" t="n">
-        <v>409.3488314793098</v>
+        <v>325.0349254133195</v>
       </c>
       <c r="G17" t="n">
-        <v>409.3488314793098</v>
+        <v>325.0349254133195</v>
       </c>
       <c r="H17" t="n">
-        <v>110.41244886351</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I17" t="n">
-        <v>63.32309198384086</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J17" t="n">
-        <v>241.214221683671</v>
+        <v>241.2142216836712</v>
       </c>
       <c r="K17" t="n">
-        <v>558.5654298314703</v>
+        <v>558.5654298314702</v>
       </c>
       <c r="L17" t="n">
-        <v>989.1694275101604</v>
+        <v>989.1694275101595</v>
       </c>
       <c r="M17" t="n">
-        <v>1499.968780879666</v>
+        <v>1499.968780879665</v>
       </c>
       <c r="N17" t="n">
-        <v>2023.647210189806</v>
+        <v>2023.647210189805</v>
       </c>
       <c r="O17" t="n">
-        <v>2504.806639967976</v>
+        <v>2504.806639967975</v>
       </c>
       <c r="P17" t="n">
-        <v>2880.964080407849</v>
+        <v>2880.964080407848</v>
       </c>
       <c r="Q17" t="n">
         <v>3115.269906120539</v>
       </c>
       <c r="R17" t="n">
-        <v>3166.154599192043</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="S17" t="n">
         <v>3052.8538953287</v>
@@ -5551,16 +5551,16 @@
         <v>2592.756873060137</v>
       </c>
       <c r="V17" t="n">
-        <v>2261.693985716567</v>
+        <v>2592.756873060137</v>
       </c>
       <c r="W17" t="n">
-        <v>1966.036425249262</v>
+        <v>2239.988217790023</v>
       </c>
       <c r="X17" t="n">
-        <v>1966.036425249262</v>
+        <v>2239.988217790023</v>
       </c>
       <c r="Y17" t="n">
-        <v>1575.897093273451</v>
+        <v>1849.848885814211</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>74.53569058914262</v>
       </c>
       <c r="I18" t="n">
-        <v>63.32309198384086</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J18" t="n">
-        <v>211.1350865809289</v>
+        <v>251.7593199168291</v>
       </c>
       <c r="K18" t="n">
-        <v>438.2139007166945</v>
+        <v>478.8381340525947</v>
       </c>
       <c r="L18" t="n">
-        <v>789.8719307435949</v>
+        <v>830.496164079495</v>
       </c>
       <c r="M18" t="n">
-        <v>1219.597133319539</v>
+        <v>1260.221366655439</v>
       </c>
       <c r="N18" t="n">
-        <v>1675.104528236167</v>
+        <v>1715.728761572067</v>
       </c>
       <c r="O18" t="n">
-        <v>2069.585008793261</v>
+        <v>2110.209242129161</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.857306210549</v>
+        <v>2407.481539546449</v>
       </c>
       <c r="Q18" t="n">
-        <v>2515.656768072139</v>
+        <v>2556.281001408039</v>
       </c>
       <c r="R18" t="n">
         <v>2556.281001408039</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>382.3759143240835</v>
+        <v>525.8882213954914</v>
       </c>
       <c r="C19" t="n">
-        <v>213.4397313961766</v>
+        <v>525.8882213954914</v>
       </c>
       <c r="D19" t="n">
-        <v>63.32309198384086</v>
+        <v>525.8882213954914</v>
       </c>
       <c r="E19" t="n">
-        <v>63.32309198384086</v>
+        <v>377.9751278130983</v>
       </c>
       <c r="F19" t="n">
-        <v>63.32309198384086</v>
+        <v>231.085180315188</v>
       </c>
       <c r="G19" t="n">
-        <v>63.32309198384086</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H19" t="n">
-        <v>63.32309198384086</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I19" t="n">
-        <v>63.32309198384086</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J19" t="n">
-        <v>104.3399918147189</v>
+        <v>104.3399918147188</v>
       </c>
       <c r="K19" t="n">
-        <v>301.5801948441898</v>
+        <v>301.5801948441897</v>
       </c>
       <c r="L19" t="n">
-        <v>609.5061818997317</v>
+        <v>609.5061818997315</v>
       </c>
       <c r="M19" t="n">
-        <v>944.5600839350939</v>
+        <v>944.5600839350936</v>
       </c>
       <c r="N19" t="n">
         <v>1277.081769484202</v>
@@ -5691,34 +5691,34 @@
         <v>1568.203070768706</v>
       </c>
       <c r="P19" t="n">
-        <v>1793.786954547611</v>
+        <v>1793.78695454761</v>
       </c>
       <c r="Q19" t="n">
         <v>1866.534462590763</v>
       </c>
       <c r="R19" t="n">
-        <v>1774.03983318281</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S19" t="n">
-        <v>1581.321353368467</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="T19" t="n">
-        <v>1359.301571557528</v>
+        <v>1451.796200965481</v>
       </c>
       <c r="U19" t="n">
-        <v>1070.195472771932</v>
+        <v>1162.690102179885</v>
       </c>
       <c r="V19" t="n">
-        <v>815.5109845660451</v>
+        <v>908.005613973998</v>
       </c>
       <c r="W19" t="n">
-        <v>526.0938145290845</v>
+        <v>618.5884439370375</v>
       </c>
       <c r="X19" t="n">
-        <v>526.0938145290845</v>
+        <v>618.5884439370375</v>
       </c>
       <c r="Y19" t="n">
-        <v>526.0938145290845</v>
+        <v>618.5884439370375</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2348.555746083993</v>
+        <v>1522.365299624716</v>
       </c>
       <c r="C20" t="n">
-        <v>1979.593229143581</v>
+        <v>1153.402782684305</v>
       </c>
       <c r="D20" t="n">
-        <v>1621.327530536831</v>
+        <v>795.1370840775541</v>
       </c>
       <c r="E20" t="n">
-        <v>1235.539277938586</v>
+        <v>409.3488314793098</v>
       </c>
       <c r="F20" t="n">
-        <v>824.5533731489787</v>
+        <v>409.3488314793098</v>
       </c>
       <c r="G20" t="n">
         <v>409.3488314793098</v>
       </c>
       <c r="H20" t="n">
-        <v>110.4124488635099</v>
+        <v>110.41244886351</v>
       </c>
       <c r="I20" t="n">
         <v>63.32309198384085</v>
       </c>
       <c r="J20" t="n">
-        <v>241.2142216836713</v>
+        <v>241.2142216836714</v>
       </c>
       <c r="K20" t="n">
-        <v>558.5654298314704</v>
+        <v>558.5654298314703</v>
       </c>
       <c r="L20" t="n">
         <v>989.1694275101599</v>
@@ -5764,7 +5764,7 @@
         <v>1499.968780879666</v>
       </c>
       <c r="N20" t="n">
-        <v>2023.647210189806</v>
+        <v>2023.647210189805</v>
       </c>
       <c r="O20" t="n">
         <v>2504.806639967975</v>
@@ -5782,22 +5782,22 @@
         <v>3052.8538953287</v>
       </c>
       <c r="T20" t="n">
-        <v>3052.8538953287</v>
+        <v>2846.297917107474</v>
       </c>
       <c r="U20" t="n">
-        <v>3052.8538953287</v>
+        <v>2592.756873060137</v>
       </c>
       <c r="V20" t="n">
-        <v>3052.8538953287</v>
+        <v>2261.693985716566</v>
       </c>
       <c r="W20" t="n">
-        <v>3052.8538953287</v>
+        <v>1908.925330446452</v>
       </c>
       <c r="X20" t="n">
-        <v>3052.8538953287</v>
+        <v>1535.459572185372</v>
       </c>
       <c r="Y20" t="n">
-        <v>2735.155586148115</v>
+        <v>1522.365299624716</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H21" t="n">
-        <v>74.5356905891426</v>
+        <v>74.53569058914262</v>
       </c>
       <c r="I21" t="n">
         <v>63.32309198384085</v>
       </c>
       <c r="J21" t="n">
-        <v>211.1350865809289</v>
+        <v>251.7593199168291</v>
       </c>
       <c r="K21" t="n">
-        <v>438.2139007166945</v>
+        <v>478.8381340525947</v>
       </c>
       <c r="L21" t="n">
-        <v>789.8719307435949</v>
+        <v>830.496164079495</v>
       </c>
       <c r="M21" t="n">
-        <v>1219.597133319539</v>
+        <v>1260.221366655439</v>
       </c>
       <c r="N21" t="n">
-        <v>1675.104528236167</v>
+        <v>1715.728761572067</v>
       </c>
       <c r="O21" t="n">
-        <v>2069.585008793261</v>
+        <v>2110.209242129161</v>
       </c>
       <c r="P21" t="n">
-        <v>2366.857306210549</v>
+        <v>2407.481539546449</v>
       </c>
       <c r="Q21" t="n">
-        <v>2515.656768072139</v>
+        <v>2556.281001408039</v>
       </c>
       <c r="R21" t="n">
         <v>2556.281001408039</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1070.195472771932</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="C22" t="n">
-        <v>921.8563867007086</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="D22" t="n">
-        <v>771.7397472883729</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="E22" t="n">
-        <v>623.8266537059798</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="F22" t="n">
-        <v>476.9367062080694</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="G22" t="n">
-        <v>309.1746178767222</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H22" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I22" t="n">
         <v>63.32309198384085</v>
       </c>
       <c r="J22" t="n">
-        <v>104.3399918147189</v>
+        <v>104.3399918147188</v>
       </c>
       <c r="K22" t="n">
-        <v>301.5801948441898</v>
+        <v>301.5801948441897</v>
       </c>
       <c r="L22" t="n">
-        <v>609.5061818997317</v>
+        <v>609.5061818997315</v>
       </c>
       <c r="M22" t="n">
-        <v>944.5600839350939</v>
+        <v>944.5600839350936</v>
       </c>
       <c r="N22" t="n">
         <v>1277.081769484202</v>
@@ -5928,34 +5928,34 @@
         <v>1568.203070768706</v>
       </c>
       <c r="P22" t="n">
-        <v>1793.786954547611</v>
+        <v>1793.78695454761</v>
       </c>
       <c r="Q22" t="n">
         <v>1866.534462590763</v>
       </c>
       <c r="R22" t="n">
-        <v>1774.03983318281</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S22" t="n">
-        <v>1581.321353368467</v>
+        <v>1748.98122569501</v>
       </c>
       <c r="T22" t="n">
-        <v>1359.301571557528</v>
+        <v>1526.961443884072</v>
       </c>
       <c r="U22" t="n">
-        <v>1070.195472771932</v>
+        <v>1237.855345098475</v>
       </c>
       <c r="V22" t="n">
-        <v>1070.195472771932</v>
+        <v>983.1708568925885</v>
       </c>
       <c r="W22" t="n">
-        <v>1070.195472771932</v>
+        <v>693.753686855628</v>
       </c>
       <c r="X22" t="n">
-        <v>1070.195472771932</v>
+        <v>465.7641359576106</v>
       </c>
       <c r="Y22" t="n">
-        <v>1070.195472771932</v>
+        <v>244.9715568140805</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2348.555746083993</v>
+        <v>1663.181013620915</v>
       </c>
       <c r="C23" t="n">
-        <v>1979.593229143581</v>
+        <v>1294.218496680503</v>
       </c>
       <c r="D23" t="n">
-        <v>1621.327530536831</v>
+        <v>935.9527980737528</v>
       </c>
       <c r="E23" t="n">
-        <v>1235.539277938586</v>
+        <v>935.9527980737528</v>
       </c>
       <c r="F23" t="n">
-        <v>824.5533731489787</v>
+        <v>524.9668932841453</v>
       </c>
       <c r="G23" t="n">
-        <v>409.3488314793098</v>
+        <v>109.7623516144764</v>
       </c>
       <c r="H23" t="n">
-        <v>110.41244886351</v>
+        <v>109.7623516144764</v>
       </c>
       <c r="I23" t="n">
-        <v>63.32309198384084</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J23" t="n">
-        <v>241.214221683671</v>
+        <v>241.2142216836714</v>
       </c>
       <c r="K23" t="n">
-        <v>558.5654298314698</v>
+        <v>558.5654298314705</v>
       </c>
       <c r="L23" t="n">
-        <v>989.1694275101599</v>
+        <v>989.1694275101602</v>
       </c>
       <c r="M23" t="n">
         <v>1499.968780879666</v>
       </c>
       <c r="N23" t="n">
-        <v>2023.647210189805</v>
+        <v>2023.647210189806</v>
       </c>
       <c r="O23" t="n">
-        <v>2504.806639967975</v>
+        <v>2504.806639967976</v>
       </c>
       <c r="P23" t="n">
-        <v>2880.964080407848</v>
+        <v>2880.964080407849</v>
       </c>
       <c r="Q23" t="n">
         <v>3115.269906120539</v>
@@ -6016,25 +6016,25 @@
         <v>3166.154599192042</v>
       </c>
       <c r="S23" t="n">
-        <v>3112.160836320884</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="T23" t="n">
-        <v>3112.160836320884</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="U23" t="n">
-        <v>3112.160836320884</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="V23" t="n">
-        <v>3112.160836320884</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="W23" t="n">
-        <v>3112.160836320884</v>
+        <v>2813.385943921928</v>
       </c>
       <c r="X23" t="n">
-        <v>2738.695078059804</v>
+        <v>2439.920185660848</v>
       </c>
       <c r="Y23" t="n">
-        <v>2348.555746083993</v>
+        <v>2049.780853685037</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H24" t="n">
-        <v>74.5356905891426</v>
+        <v>74.53569058914262</v>
       </c>
       <c r="I24" t="n">
-        <v>63.32309198384084</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J24" t="n">
-        <v>150.455983199826</v>
+        <v>211.1350865809291</v>
       </c>
       <c r="K24" t="n">
-        <v>377.5347973355916</v>
+        <v>438.2139007166946</v>
       </c>
       <c r="L24" t="n">
-        <v>729.1928273624919</v>
+        <v>789.8719307435949</v>
       </c>
       <c r="M24" t="n">
-        <v>1260.221366655439</v>
+        <v>1219.597133319539</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.728761572067</v>
+        <v>1675.104528236167</v>
       </c>
       <c r="O24" t="n">
-        <v>2110.209242129161</v>
+        <v>2069.585008793261</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.481539546449</v>
+        <v>2366.857306210549</v>
       </c>
       <c r="Q24" t="n">
-        <v>2556.281001408039</v>
+        <v>2515.656768072139</v>
       </c>
       <c r="R24" t="n">
         <v>2556.281001408039</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>377.487798257237</v>
+        <v>526.0938145290843</v>
       </c>
       <c r="C25" t="n">
-        <v>208.5516153293301</v>
+        <v>357.1576316011774</v>
       </c>
       <c r="D25" t="n">
-        <v>162.4306295624651</v>
+        <v>207.0409921888417</v>
       </c>
       <c r="E25" t="n">
-        <v>162.4306295624651</v>
+        <v>207.0409921888417</v>
       </c>
       <c r="F25" t="n">
-        <v>162.4306295624651</v>
+        <v>207.0409921888417</v>
       </c>
       <c r="G25" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H25" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I25" t="n">
-        <v>63.32309198384084</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J25" t="n">
         <v>104.3399918147188</v>
@@ -6174,25 +6174,25 @@
         <v>1774.03983318281</v>
       </c>
       <c r="S25" t="n">
-        <v>1774.03983318281</v>
+        <v>1581.321353368466</v>
       </c>
       <c r="T25" t="n">
-        <v>1552.020051371872</v>
+        <v>1359.301571557528</v>
       </c>
       <c r="U25" t="n">
-        <v>1552.020051371872</v>
+        <v>1070.195472771932</v>
       </c>
       <c r="V25" t="n">
-        <v>1297.335563165985</v>
+        <v>815.5109845660448</v>
       </c>
       <c r="W25" t="n">
-        <v>1007.918393129024</v>
+        <v>526.0938145290843</v>
       </c>
       <c r="X25" t="n">
-        <v>779.9288422310069</v>
+        <v>526.0938145290843</v>
       </c>
       <c r="Y25" t="n">
-        <v>559.1362630874768</v>
+        <v>526.0938145290843</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2348.555746083993</v>
+        <v>1125.562148056118</v>
       </c>
       <c r="C26" t="n">
-        <v>1979.593229143581</v>
+        <v>832.5746953801989</v>
       </c>
       <c r="D26" t="n">
-        <v>1621.327530536831</v>
+        <v>474.3089967734484</v>
       </c>
       <c r="E26" t="n">
-        <v>1235.539277938586</v>
+        <v>474.3089967734484</v>
       </c>
       <c r="F26" t="n">
-        <v>824.5533731489787</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="G26" t="n">
-        <v>409.3488314793098</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H26" t="n">
-        <v>110.41244886351</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I26" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J26" t="n">
-        <v>241.2142216836711</v>
+        <v>241.2142216836714</v>
       </c>
       <c r="K26" t="n">
-        <v>558.5654298314701</v>
+        <v>558.5654298314703</v>
       </c>
       <c r="L26" t="n">
         <v>989.1694275101599</v>
@@ -6244,7 +6244,7 @@
         <v>2504.806639967975</v>
       </c>
       <c r="P26" t="n">
-        <v>2880.964080407848</v>
+        <v>2880.964080407849</v>
       </c>
       <c r="Q26" t="n">
         <v>3115.269906120539</v>
@@ -6256,22 +6256,22 @@
         <v>3166.154599192042</v>
       </c>
       <c r="T26" t="n">
-        <v>3166.154599192042</v>
+        <v>2959.598620970817</v>
       </c>
       <c r="U26" t="n">
-        <v>3166.154599192042</v>
+        <v>2959.598620970817</v>
       </c>
       <c r="V26" t="n">
-        <v>3166.154599192042</v>
+        <v>2628.535733627246</v>
       </c>
       <c r="W26" t="n">
-        <v>2813.385943921927</v>
+        <v>2275.767078357132</v>
       </c>
       <c r="X26" t="n">
-        <v>2813.385943921927</v>
+        <v>1902.301320096052</v>
       </c>
       <c r="Y26" t="n">
-        <v>2735.155586148115</v>
+        <v>1512.16198812024</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H27" t="n">
-        <v>74.5356905891426</v>
+        <v>74.53569058914262</v>
       </c>
       <c r="I27" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J27" t="n">
-        <v>150.455983199826</v>
+        <v>211.1350865809291</v>
       </c>
       <c r="K27" t="n">
-        <v>377.5347973355916</v>
+        <v>438.2139007166946</v>
       </c>
       <c r="L27" t="n">
-        <v>729.1928273624919</v>
+        <v>789.8719307435949</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.918029938436</v>
+        <v>1219.597133319539</v>
       </c>
       <c r="N27" t="n">
-        <v>1614.425424855064</v>
+        <v>1675.104528236167</v>
       </c>
       <c r="O27" t="n">
-        <v>2008.905905412158</v>
+        <v>2069.585008793261</v>
       </c>
       <c r="P27" t="n">
-        <v>2306.178202829446</v>
+        <v>2366.857306210549</v>
       </c>
       <c r="Q27" t="n">
-        <v>2556.281001408039</v>
+        <v>2515.656768072139</v>
       </c>
       <c r="R27" t="n">
         <v>2556.281001408039</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>310.3437231448582</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="C28" t="n">
-        <v>310.3437231448582</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="D28" t="n">
-        <v>310.3437231448582</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="E28" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="F28" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="G28" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H28" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I28" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J28" t="n">
         <v>104.3399918147188</v>
@@ -6417,19 +6417,19 @@
         <v>1359.301571557528</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.237960531236</v>
+        <v>1070.195472771932</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5534723253488</v>
+        <v>815.5109845660448</v>
       </c>
       <c r="W28" t="n">
-        <v>531.1363022883883</v>
+        <v>526.0938145290843</v>
       </c>
       <c r="X28" t="n">
-        <v>531.1363022883883</v>
+        <v>298.1042636310669</v>
       </c>
       <c r="Y28" t="n">
-        <v>310.3437231448582</v>
+        <v>244.9715568140805</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2120.06350357628</v>
+        <v>1634.414821798524</v>
       </c>
       <c r="C29" t="n">
-        <v>1979.593229143581</v>
+        <v>1265.452304858112</v>
       </c>
       <c r="D29" t="n">
-        <v>1621.327530536831</v>
+        <v>907.1866062513618</v>
       </c>
       <c r="E29" t="n">
-        <v>1235.539277938586</v>
+        <v>521.3983536531175</v>
       </c>
       <c r="F29" t="n">
-        <v>824.5533731489787</v>
+        <v>110.41244886351</v>
       </c>
       <c r="G29" t="n">
-        <v>409.3488314793098</v>
+        <v>110.41244886351</v>
       </c>
       <c r="H29" t="n">
         <v>110.41244886351</v>
       </c>
       <c r="I29" t="n">
-        <v>63.32309198384085</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="J29" t="n">
-        <v>241.214221683671</v>
+        <v>241.2142216836712</v>
       </c>
       <c r="K29" t="n">
-        <v>558.5654298314698</v>
+        <v>558.5654298314702</v>
       </c>
       <c r="L29" t="n">
-        <v>989.1694275101599</v>
+        <v>989.1694275101595</v>
       </c>
       <c r="M29" t="n">
-        <v>1499.968780879666</v>
+        <v>1499.968780879665</v>
       </c>
       <c r="N29" t="n">
         <v>2023.647210189805</v>
@@ -6490,25 +6490,25 @@
         <v>3166.154599192042</v>
       </c>
       <c r="S29" t="n">
-        <v>3052.8538953287</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="T29" t="n">
-        <v>2846.297917107474</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="U29" t="n">
-        <v>2846.297917107474</v>
+        <v>3078.311962737411</v>
       </c>
       <c r="V29" t="n">
-        <v>2846.297917107474</v>
+        <v>2747.24907539384</v>
       </c>
       <c r="W29" t="n">
-        <v>2493.52926183736</v>
+        <v>2394.480420123726</v>
       </c>
       <c r="X29" t="n">
-        <v>2120.06350357628</v>
+        <v>2021.014661862646</v>
       </c>
       <c r="Y29" t="n">
-        <v>2120.06350357628</v>
+        <v>2021.014661862646</v>
       </c>
     </row>
     <row r="30">
@@ -6536,22 +6536,22 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H30" t="n">
-        <v>74.53569058914262</v>
+        <v>74.5356905891426</v>
       </c>
       <c r="I30" t="n">
-        <v>63.32309198384085</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="J30" t="n">
-        <v>150.4559831998261</v>
+        <v>251.7593199168291</v>
       </c>
       <c r="K30" t="n">
-        <v>377.5347973355916</v>
+        <v>478.8381340525947</v>
       </c>
       <c r="L30" t="n">
-        <v>729.1928273624919</v>
+        <v>830.496164079495</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.918029938436</v>
+        <v>1260.221366655439</v>
       </c>
       <c r="N30" t="n">
         <v>1715.728761572067</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>646.0188483196295</v>
+        <v>692.0022094761284</v>
       </c>
       <c r="C31" t="n">
-        <v>477.0826653917226</v>
+        <v>523.0660265482215</v>
       </c>
       <c r="D31" t="n">
-        <v>477.0826653917226</v>
+        <v>523.0660265482215</v>
       </c>
       <c r="E31" t="n">
-        <v>477.0826653917226</v>
+        <v>523.0660265482215</v>
       </c>
       <c r="F31" t="n">
-        <v>330.1927178938122</v>
+        <v>377.8291686294451</v>
       </c>
       <c r="G31" t="n">
-        <v>162.4306295624651</v>
+        <v>210.067080298098</v>
       </c>
       <c r="H31" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="I31" t="n">
-        <v>63.32309198384085</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="J31" t="n">
         <v>104.3399918147188</v>
@@ -6648,25 +6648,25 @@
         <v>1866.534462590763</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.199914681382</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="T31" t="n">
-        <v>1634.180132870444</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="U31" t="n">
-        <v>1345.074034084847</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="V31" t="n">
-        <v>1345.074034084847</v>
+        <v>1611.849974384876</v>
       </c>
       <c r="W31" t="n">
-        <v>1055.656864047887</v>
+        <v>1322.432804347916</v>
       </c>
       <c r="X31" t="n">
-        <v>827.6673131498692</v>
+        <v>1094.443253449898</v>
       </c>
       <c r="Y31" t="n">
-        <v>827.6673131498692</v>
+        <v>873.6506743063682</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1549.880309757572</v>
+        <v>1886.261847534655</v>
       </c>
       <c r="C32" t="n">
-        <v>1549.880309757572</v>
+        <v>1517.299330594243</v>
       </c>
       <c r="D32" t="n">
-        <v>1549.880309757572</v>
+        <v>1159.033631987493</v>
       </c>
       <c r="E32" t="n">
-        <v>1164.092057159328</v>
+        <v>773.2453793892482</v>
       </c>
       <c r="F32" t="n">
-        <v>753.1061523697203</v>
+        <v>362.2594745996407</v>
       </c>
       <c r="G32" t="n">
-        <v>337.9016107000514</v>
+        <v>362.2594745996407</v>
       </c>
       <c r="H32" t="n">
         <v>63.32309198384085</v>
@@ -6703,22 +6703,22 @@
         <v>241.214221683671</v>
       </c>
       <c r="K32" t="n">
-        <v>558.5654298314698</v>
+        <v>558.5654298314701</v>
       </c>
       <c r="L32" t="n">
-        <v>989.1694275101599</v>
+        <v>989.1694275101597</v>
       </c>
       <c r="M32" t="n">
         <v>1499.968780879666</v>
       </c>
       <c r="N32" t="n">
-        <v>2023.647210189805</v>
+        <v>2023.647210189806</v>
       </c>
       <c r="O32" t="n">
-        <v>2504.806639967975</v>
+        <v>2504.806639967976</v>
       </c>
       <c r="P32" t="n">
-        <v>2880.964080407848</v>
+        <v>2880.964080407849</v>
       </c>
       <c r="Q32" t="n">
         <v>3115.269906120539</v>
@@ -6730,22 +6730,22 @@
         <v>3052.8538953287</v>
       </c>
       <c r="T32" t="n">
-        <v>3052.8538953287</v>
+        <v>2916.542063621925</v>
       </c>
       <c r="U32" t="n">
-        <v>3052.8538953287</v>
+        <v>2663.001019574588</v>
       </c>
       <c r="V32" t="n">
-        <v>3052.8538953287</v>
+        <v>2663.001019574588</v>
       </c>
       <c r="W32" t="n">
-        <v>2700.085240058585</v>
+        <v>2663.001019574588</v>
       </c>
       <c r="X32" t="n">
-        <v>2326.619481797506</v>
+        <v>2663.001019574588</v>
       </c>
       <c r="Y32" t="n">
-        <v>1936.480149821694</v>
+        <v>2272.861687598776</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>63.32309198384085</v>
       </c>
       <c r="J33" t="n">
-        <v>150.4559831998261</v>
+        <v>211.1350865809291</v>
       </c>
       <c r="K33" t="n">
-        <v>377.5347973355916</v>
+        <v>438.2139007166946</v>
       </c>
       <c r="L33" t="n">
-        <v>729.1928273624919</v>
+        <v>789.8719307435949</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.918029938436</v>
+        <v>1219.597133319539</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.728761572067</v>
+        <v>1675.104528236167</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.209242129161</v>
+        <v>2069.585008793261</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.481539546449</v>
+        <v>2366.857306210549</v>
       </c>
       <c r="Q33" t="n">
-        <v>2556.281001408039</v>
+        <v>2515.656768072139</v>
       </c>
       <c r="R33" t="n">
         <v>2556.281001408039</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1090.792569628616</v>
+        <v>400.0213632430949</v>
       </c>
       <c r="C34" t="n">
-        <v>921.8563867007086</v>
+        <v>231.085180315188</v>
       </c>
       <c r="D34" t="n">
-        <v>771.7397472883729</v>
+        <v>231.085180315188</v>
       </c>
       <c r="E34" t="n">
-        <v>623.8266537059798</v>
+        <v>231.085180315188</v>
       </c>
       <c r="F34" t="n">
-        <v>476.9367062080694</v>
+        <v>231.085180315188</v>
       </c>
       <c r="G34" t="n">
-        <v>309.1746178767223</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H34" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I34" t="n">
         <v>63.32309198384085</v>
@@ -6885,25 +6885,25 @@
         <v>1866.534462590763</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.534462590763</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.534462590763</v>
+        <v>1451.796200965481</v>
       </c>
       <c r="U34" t="n">
-        <v>1866.534462590763</v>
+        <v>1162.690102179885</v>
       </c>
       <c r="V34" t="n">
-        <v>1866.534462590763</v>
+        <v>1099.076549008313</v>
       </c>
       <c r="W34" t="n">
-        <v>1721.223164500403</v>
+        <v>809.659378971352</v>
       </c>
       <c r="X34" t="n">
-        <v>1493.233613602385</v>
+        <v>581.6698280733347</v>
       </c>
       <c r="Y34" t="n">
-        <v>1272.441034458855</v>
+        <v>581.6698280733347</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>790.5513075310031</v>
+        <v>1663.181013620915</v>
       </c>
       <c r="C35" t="n">
-        <v>421.5887905905914</v>
+        <v>1294.218496680503</v>
       </c>
       <c r="D35" t="n">
-        <v>63.32309198384085</v>
+        <v>935.9527980737528</v>
       </c>
       <c r="E35" t="n">
-        <v>63.32309198384085</v>
+        <v>935.9527980737528</v>
       </c>
       <c r="F35" t="n">
-        <v>63.32309198384085</v>
+        <v>524.9668932841453</v>
       </c>
       <c r="G35" t="n">
-        <v>63.32309198384085</v>
+        <v>109.7623516144764</v>
       </c>
       <c r="H35" t="n">
         <v>63.32309198384085</v>
@@ -6937,19 +6937,19 @@
         <v>63.32309198384085</v>
       </c>
       <c r="J35" t="n">
-        <v>241.2142216836712</v>
+        <v>241.214221683671</v>
       </c>
       <c r="K35" t="n">
-        <v>558.5654298314702</v>
+        <v>558.5654298314701</v>
       </c>
       <c r="L35" t="n">
-        <v>989.1694275101595</v>
+        <v>989.1694275101597</v>
       </c>
       <c r="M35" t="n">
-        <v>1499.968780879665</v>
+        <v>1499.968780879666</v>
       </c>
       <c r="N35" t="n">
-        <v>2023.647210189805</v>
+        <v>2023.647210189806</v>
       </c>
       <c r="O35" t="n">
         <v>2504.806639967975</v>
@@ -6964,25 +6964,25 @@
         <v>3166.154599192042</v>
       </c>
       <c r="S35" t="n">
-        <v>3084.684802714264</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="T35" t="n">
-        <v>2878.128824493038</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="U35" t="n">
-        <v>2624.587780445701</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="V35" t="n">
-        <v>2293.524893102131</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="W35" t="n">
-        <v>1940.756237832016</v>
+        <v>2813.385943921928</v>
       </c>
       <c r="X35" t="n">
-        <v>1567.290479570937</v>
+        <v>2439.920185660848</v>
       </c>
       <c r="Y35" t="n">
-        <v>1177.151147595125</v>
+        <v>2049.780853685037</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>63.32309198384085</v>
       </c>
       <c r="J36" t="n">
-        <v>150.4559831998261</v>
+        <v>211.1350865809291</v>
       </c>
       <c r="K36" t="n">
-        <v>377.5347973355916</v>
+        <v>438.2139007166946</v>
       </c>
       <c r="L36" t="n">
-        <v>729.1928273624919</v>
+        <v>789.8719307435949</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.918029938436</v>
+        <v>1219.597133319539</v>
       </c>
       <c r="N36" t="n">
-        <v>1614.425424855064</v>
+        <v>1675.104528236167</v>
       </c>
       <c r="O36" t="n">
-        <v>2008.905905412158</v>
+        <v>2069.585008793261</v>
       </c>
       <c r="P36" t="n">
-        <v>2306.178202829446</v>
+        <v>2366.857306210549</v>
       </c>
       <c r="Q36" t="n">
-        <v>2556.281001408039</v>
+        <v>2515.656768072139</v>
       </c>
       <c r="R36" t="n">
         <v>2556.281001408039</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>331.366812490372</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="C37" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="D37" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="E37" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="F37" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="G37" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H37" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I37" t="n">
         <v>63.32309198384085</v>
@@ -7122,25 +7122,25 @@
         <v>1866.534462590763</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.534462590763</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="T37" t="n">
-        <v>1795.005164390603</v>
+        <v>1451.796200965481</v>
       </c>
       <c r="U37" t="n">
-        <v>1505.899065605007</v>
+        <v>1162.690102179885</v>
       </c>
       <c r="V37" t="n">
-        <v>1251.21457739912</v>
+        <v>908.005613973998</v>
       </c>
       <c r="W37" t="n">
-        <v>961.7974073621592</v>
+        <v>618.5884439370375</v>
       </c>
       <c r="X37" t="n">
-        <v>733.8078564641419</v>
+        <v>390.5988930390201</v>
       </c>
       <c r="Y37" t="n">
-        <v>513.0152773206117</v>
+        <v>169.80631389549</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1189.297253209329</v>
+        <v>1332.118126277343</v>
       </c>
       <c r="C38" t="n">
-        <v>820.3347362689174</v>
+        <v>963.1556093369315</v>
       </c>
       <c r="D38" t="n">
-        <v>820.3347362689174</v>
+        <v>604.8899107301811</v>
       </c>
       <c r="E38" t="n">
-        <v>820.3347362689174</v>
+        <v>604.8899107301811</v>
       </c>
       <c r="F38" t="n">
-        <v>409.3488314793098</v>
+        <v>193.9040059405735</v>
       </c>
       <c r="G38" t="n">
-        <v>409.3488314793098</v>
+        <v>193.9040059405735</v>
       </c>
       <c r="H38" t="n">
-        <v>110.41244886351</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="I38" t="n">
-        <v>63.32309198384085</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="J38" t="n">
-        <v>241.214221683671</v>
+        <v>241.2142216836712</v>
       </c>
       <c r="K38" t="n">
-        <v>558.5654298314701</v>
+        <v>558.5654298314702</v>
       </c>
       <c r="L38" t="n">
-        <v>989.1694275101597</v>
+        <v>989.1694275101595</v>
       </c>
       <c r="M38" t="n">
-        <v>1499.968780879666</v>
+        <v>1499.968780879665</v>
       </c>
       <c r="N38" t="n">
-        <v>2023.647210189806</v>
+        <v>2023.647210189805</v>
       </c>
       <c r="O38" t="n">
-        <v>2504.806639967976</v>
+        <v>2504.806639967975</v>
       </c>
       <c r="P38" t="n">
-        <v>2880.964080407849</v>
+        <v>2880.964080407848</v>
       </c>
       <c r="Q38" t="n">
         <v>3115.269906120539</v>
@@ -7201,25 +7201,25 @@
         <v>3166.154599192042</v>
       </c>
       <c r="S38" t="n">
-        <v>3052.8538953287</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="T38" t="n">
-        <v>3052.8538953287</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="U38" t="n">
-        <v>2799.312851281363</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="V38" t="n">
-        <v>2468.249963937792</v>
+        <v>2835.091711848471</v>
       </c>
       <c r="W38" t="n">
-        <v>2339.502183510343</v>
+        <v>2482.323056578356</v>
       </c>
       <c r="X38" t="n">
-        <v>1966.036425249262</v>
+        <v>2108.857298317277</v>
       </c>
       <c r="Y38" t="n">
-        <v>1575.897093273451</v>
+        <v>1718.717966341465</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H39" t="n">
-        <v>74.53569058914262</v>
+        <v>74.5356905891426</v>
       </c>
       <c r="I39" t="n">
-        <v>63.32309198384085</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="J39" t="n">
-        <v>150.4559831998261</v>
+        <v>211.1350865809291</v>
       </c>
       <c r="K39" t="n">
-        <v>377.5347973355916</v>
+        <v>438.2139007166946</v>
       </c>
       <c r="L39" t="n">
-        <v>729.1928273624919</v>
+        <v>789.8719307435949</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.918029938436</v>
+        <v>1219.597133319539</v>
       </c>
       <c r="N39" t="n">
-        <v>1614.425424855064</v>
+        <v>1675.104528236167</v>
       </c>
       <c r="O39" t="n">
-        <v>2110.209242129161</v>
+        <v>2069.585008793261</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.481539546449</v>
+        <v>2366.857306210549</v>
       </c>
       <c r="Q39" t="n">
-        <v>2556.281001408039</v>
+        <v>2515.656768072139</v>
       </c>
       <c r="R39" t="n">
         <v>2556.281001408039</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2390.412706229894</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="C40" t="n">
-        <v>2221.476523301988</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="D40" t="n">
-        <v>2071.359883889652</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="E40" t="n">
-        <v>1923.446790307259</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="F40" t="n">
-        <v>1776.556842809349</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="G40" t="n">
-        <v>1608.794754478002</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="H40" t="n">
-        <v>1462.050766163744</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="I40" t="n">
-        <v>1362.94322858512</v>
+        <v>63.32309198384083</v>
       </c>
       <c r="J40" t="n">
-        <v>1403.960128415998</v>
+        <v>104.3399918147188</v>
       </c>
       <c r="K40" t="n">
-        <v>1601.200331445469</v>
+        <v>301.5801948441897</v>
       </c>
       <c r="L40" t="n">
-        <v>1909.126318501011</v>
+        <v>609.5061818997315</v>
       </c>
       <c r="M40" t="n">
-        <v>2244.180220536373</v>
+        <v>944.5600839350936</v>
       </c>
       <c r="N40" t="n">
-        <v>2576.701906085481</v>
+        <v>1277.081769484202</v>
       </c>
       <c r="O40" t="n">
-        <v>2867.823207369986</v>
+        <v>1568.203070768706</v>
       </c>
       <c r="P40" t="n">
-        <v>3093.40709114889</v>
+        <v>1793.78695454761</v>
       </c>
       <c r="Q40" t="n">
-        <v>3166.154599192042</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="R40" t="n">
-        <v>3073.659969784089</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S40" t="n">
-        <v>3073.659969784089</v>
+        <v>1748.98122569501</v>
       </c>
       <c r="T40" t="n">
-        <v>3073.659969784089</v>
+        <v>1526.961443884072</v>
       </c>
       <c r="U40" t="n">
-        <v>3073.659969784089</v>
+        <v>1237.855345098475</v>
       </c>
       <c r="V40" t="n">
-        <v>3073.659969784089</v>
+        <v>983.1708568925885</v>
       </c>
       <c r="W40" t="n">
-        <v>3020.843301101681</v>
+        <v>693.753686855628</v>
       </c>
       <c r="X40" t="n">
-        <v>2792.853750203664</v>
+        <v>465.7641359576106</v>
       </c>
       <c r="Y40" t="n">
-        <v>2572.061171060134</v>
+        <v>244.9715568140805</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1117.010244138297</v>
+        <v>2002.530006588524</v>
       </c>
       <c r="C41" t="n">
-        <v>748.0477271978849</v>
+        <v>1633.567489648112</v>
       </c>
       <c r="D41" t="n">
-        <v>748.0477271978849</v>
+        <v>1275.301791041362</v>
       </c>
       <c r="E41" t="n">
-        <v>362.2594745996407</v>
+        <v>889.5135384431173</v>
       </c>
       <c r="F41" t="n">
-        <v>362.2594745996407</v>
+        <v>478.5276336535098</v>
       </c>
       <c r="G41" t="n">
-        <v>362.2594745996407</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H41" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I41" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J41" t="n">
-        <v>241.214221683671</v>
+        <v>241.2142216836714</v>
       </c>
       <c r="K41" t="n">
-        <v>558.5654298314698</v>
+        <v>558.5654298314703</v>
       </c>
       <c r="L41" t="n">
-        <v>989.1694275101595</v>
+        <v>989.1694275101599</v>
       </c>
       <c r="M41" t="n">
-        <v>1499.968780879665</v>
+        <v>1499.968780879666</v>
       </c>
       <c r="N41" t="n">
         <v>2023.647210189805</v>
@@ -7438,25 +7438,25 @@
         <v>3166.154599192042</v>
       </c>
       <c r="S41" t="n">
-        <v>3052.853895328699</v>
+        <v>3152.734936889537</v>
       </c>
       <c r="T41" t="n">
-        <v>2846.297917107473</v>
+        <v>3152.734936889537</v>
       </c>
       <c r="U41" t="n">
-        <v>2592.756873060136</v>
+        <v>3152.734936889537</v>
       </c>
       <c r="V41" t="n">
-        <v>2261.693985716565</v>
+        <v>3152.734936889537</v>
       </c>
       <c r="W41" t="n">
-        <v>1908.925330446451</v>
+        <v>3152.734936889537</v>
       </c>
       <c r="X41" t="n">
-        <v>1893.74941617823</v>
+        <v>2779.269178628457</v>
       </c>
       <c r="Y41" t="n">
-        <v>1503.610084202418</v>
+        <v>2389.129846652645</v>
       </c>
     </row>
     <row r="42">
@@ -7484,37 +7484,37 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H42" t="n">
-        <v>74.53569058914263</v>
+        <v>74.53569058914262</v>
       </c>
       <c r="I42" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J42" t="n">
-        <v>150.455983199826</v>
+        <v>211.1350865809291</v>
       </c>
       <c r="K42" t="n">
-        <v>478.8381340525964</v>
+        <v>438.2139007166946</v>
       </c>
       <c r="L42" t="n">
-        <v>830.4961640794966</v>
+        <v>789.8719307435949</v>
       </c>
       <c r="M42" t="n">
-        <v>1260.22136665544</v>
+        <v>1219.597133319539</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.728761572069</v>
+        <v>1675.104528236167</v>
       </c>
       <c r="O42" t="n">
-        <v>2110.209242129162</v>
+        <v>2069.585008793261</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.481539546449</v>
+        <v>2366.857306210549</v>
       </c>
       <c r="Q42" t="n">
-        <v>2556.28100140804</v>
+        <v>2515.656768072139</v>
       </c>
       <c r="R42" t="n">
-        <v>2556.28100140804</v>
+        <v>2556.281001408039</v>
       </c>
       <c r="S42" t="n">
         <v>2425.53035422514</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.32309198384083</v>
+        <v>692.0022094761284</v>
       </c>
       <c r="C43" t="n">
-        <v>63.32309198384083</v>
+        <v>523.0660265482215</v>
       </c>
       <c r="D43" t="n">
-        <v>63.32309198384083</v>
+        <v>372.9493871358858</v>
       </c>
       <c r="E43" t="n">
-        <v>63.32309198384083</v>
+        <v>309.1746178767223</v>
       </c>
       <c r="F43" t="n">
-        <v>63.32309198384083</v>
+        <v>309.1746178767223</v>
       </c>
       <c r="G43" t="n">
-        <v>63.32309198384083</v>
+        <v>309.1746178767223</v>
       </c>
       <c r="H43" t="n">
-        <v>63.32309198384083</v>
+        <v>162.4306295624651</v>
       </c>
       <c r="I43" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J43" t="n">
         <v>104.3399918147188</v>
@@ -7578,10 +7578,10 @@
         <v>609.5061818997315</v>
       </c>
       <c r="M43" t="n">
-        <v>944.5600839350935</v>
+        <v>944.5600839350936</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.081769484201</v>
+        <v>1277.081769484202</v>
       </c>
       <c r="O43" t="n">
         <v>1568.203070768706</v>
@@ -7596,25 +7596,25 @@
         <v>1866.534462590763</v>
       </c>
       <c r="S43" t="n">
-        <v>1748.98122569501</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="T43" t="n">
-        <v>1526.961443884072</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="U43" t="n">
-        <v>1237.855345098475</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="V43" t="n">
-        <v>983.1708568925885</v>
+        <v>1611.849974384876</v>
       </c>
       <c r="W43" t="n">
-        <v>693.753686855628</v>
+        <v>1322.432804347916</v>
       </c>
       <c r="X43" t="n">
-        <v>465.7641359576106</v>
+        <v>1094.443253449898</v>
       </c>
       <c r="Y43" t="n">
-        <v>244.9715568140805</v>
+        <v>873.6506743063682</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1135.72971487606</v>
+        <v>1718.717966341464</v>
       </c>
       <c r="C44" t="n">
-        <v>1135.72971487606</v>
+        <v>1718.717966341464</v>
       </c>
       <c r="D44" t="n">
-        <v>777.4640162693096</v>
+        <v>1360.452267734714</v>
       </c>
       <c r="E44" t="n">
-        <v>777.4640162693096</v>
+        <v>974.6640151364693</v>
       </c>
       <c r="F44" t="n">
         <v>777.4640162693096</v>
@@ -7642,58 +7642,58 @@
         <v>362.2594745996407</v>
       </c>
       <c r="H44" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="I44" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J44" t="n">
         <v>241.214221683671</v>
       </c>
       <c r="K44" t="n">
-        <v>558.5654298314699</v>
+        <v>558.5654298314698</v>
       </c>
       <c r="L44" t="n">
-        <v>989.1694275101595</v>
+        <v>989.169427510159</v>
       </c>
       <c r="M44" t="n">
-        <v>1499.968780879665</v>
+        <v>1499.968780879664</v>
       </c>
       <c r="N44" t="n">
-        <v>2023.647210189805</v>
+        <v>2023.647210189804</v>
       </c>
       <c r="O44" t="n">
         <v>2504.806639967974</v>
       </c>
       <c r="P44" t="n">
-        <v>2880.964080407847</v>
+        <v>2880.964080407848</v>
       </c>
       <c r="Q44" t="n">
-        <v>3115.269906120537</v>
+        <v>3115.269906120538</v>
       </c>
       <c r="R44" t="n">
-        <v>3166.154599192042</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="S44" t="n">
-        <v>3052.853895328699</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="T44" t="n">
-        <v>2846.297917107473</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="U44" t="n">
-        <v>2592.756873060136</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="V44" t="n">
-        <v>2261.693985716565</v>
+        <v>2835.09171184847</v>
       </c>
       <c r="W44" t="n">
-        <v>1908.925330446451</v>
+        <v>2482.323056578356</v>
       </c>
       <c r="X44" t="n">
-        <v>1535.459572185371</v>
+        <v>2108.857298317276</v>
       </c>
       <c r="Y44" t="n">
-        <v>1145.32024020956</v>
+        <v>1718.717966341464</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H45" t="n">
-        <v>74.53569058914263</v>
+        <v>74.53569058914262</v>
       </c>
       <c r="I45" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J45" t="n">
-        <v>251.7593199168309</v>
+        <v>211.1350865809313</v>
       </c>
       <c r="K45" t="n">
-        <v>478.8381340525964</v>
+        <v>438.2139007166968</v>
       </c>
       <c r="L45" t="n">
-        <v>830.4961640794966</v>
+        <v>789.871930743597</v>
       </c>
       <c r="M45" t="n">
-        <v>1260.22136665544</v>
+        <v>1219.597133319541</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.728761572069</v>
+        <v>1675.104528236169</v>
       </c>
       <c r="O45" t="n">
-        <v>2110.209242129162</v>
+        <v>2069.585008793262</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.481539546449</v>
+        <v>2366.85730621055</v>
       </c>
       <c r="Q45" t="n">
-        <v>2556.28100140804</v>
+        <v>2515.65676807214</v>
       </c>
       <c r="R45" t="n">
         <v>2556.28100140804</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>382.3759143240835</v>
+        <v>624.8497997904625</v>
       </c>
       <c r="C46" t="n">
-        <v>213.4397313961766</v>
+        <v>624.8497997904625</v>
       </c>
       <c r="D46" t="n">
-        <v>63.32309198384083</v>
+        <v>624.8497997904625</v>
       </c>
       <c r="E46" t="n">
-        <v>63.32309198384083</v>
+        <v>476.9367062080694</v>
       </c>
       <c r="F46" t="n">
-        <v>63.32309198384083</v>
+        <v>476.9367062080694</v>
       </c>
       <c r="G46" t="n">
-        <v>63.32309198384083</v>
+        <v>309.1746178767222</v>
       </c>
       <c r="H46" t="n">
-        <v>63.32309198384083</v>
+        <v>162.4306295624651</v>
       </c>
       <c r="I46" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J46" t="n">
         <v>104.3399918147188</v>
       </c>
       <c r="K46" t="n">
-        <v>301.5801948441897</v>
+        <v>301.5801948441896</v>
       </c>
       <c r="L46" t="n">
         <v>609.5061818997315</v>
@@ -7833,25 +7833,25 @@
         <v>1866.534462590763</v>
       </c>
       <c r="S46" t="n">
-        <v>1673.815982776419</v>
+        <v>1766.406275258784</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.796200965481</v>
+        <v>1544.386493447846</v>
       </c>
       <c r="U46" t="n">
-        <v>1162.690102179884</v>
+        <v>1255.28039466225</v>
       </c>
       <c r="V46" t="n">
-        <v>908.0056139739976</v>
+        <v>1255.28039466225</v>
       </c>
       <c r="W46" t="n">
-        <v>831.158044365631</v>
+        <v>1255.28039466225</v>
       </c>
       <c r="X46" t="n">
-        <v>603.1684934676136</v>
+        <v>1027.290843764232</v>
       </c>
       <c r="Y46" t="n">
-        <v>382.3759143240835</v>
+        <v>806.4982646207022</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>102.3266027444473</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3266027444473</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>102.3266027444473</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.3266027444474</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>4.487090684149052</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.2920236172755</v>
+        <v>102.3266027444476</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>4.487090684149081</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.29202361727553</v>
+        <v>102.3266027444476</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>4.487090684149081</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>61.29202361727582</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3266027444476</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.487090684149081</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>61.29202361727582</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.3266027444479</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.487090684149081</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>102.3266027444476</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>102.3266027444477</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>61.29202361727582</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>102.3266027444477</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.487090684149081</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>61.29202361727582</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.3266027444479</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.487090684149081</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>61.29202361727582</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>102.3266027444478</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.487090684149081</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>61.29202361727582</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3266027444495</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.487090684149109</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3266027444494</v>
+        <v>61.29202361727815</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.487090684149109</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.01702407393689</v>
+        <v>14.01702407393691</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.01702407393689</v>
+        <v>14.01702407393691</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.01702407393689</v>
+        <v>14.01702407393691</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>282.6615531101606</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.0524962529722</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I11" t="n">
         <v>46.61846331087239</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>112.1676968247093</v>
+        <v>10.1399204591212</v>
       </c>
       <c r="T11" t="n">
         <v>204.4904184390135</v>
@@ -23317,10 +23317,10 @@
         <v>251.0056336068635</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.9914822871798</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.11646220283797</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>91.56968311387364</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>219.7995839928288</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.6327807232551</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>238.1049348802657</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>112.1676968247093</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0056336068635</v>
+        <v>50.12658421571862</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0844674480336</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>145.2765484311146</v>
       </c>
       <c r="I16" t="n">
-        <v>45.51508245402124</v>
+        <v>23.50829219195958</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>91.56968311387364</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23749,10 +23749,10 @@
         <v>411.0524962529722</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>36.85230369445799</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>46.61846331087241</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>56.53998385478189</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.55125897898631</v>
+        <v>88.05875986580671</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0844674480336</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>145.2765484311146</v>
       </c>
       <c r="I19" t="n">
-        <v>98.11646220283797</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>91.56968311387365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.0524962529722</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0056336068635</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>71.71661256727441</v>
+        <v>373.2746088210042</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>20.39112588811679</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0844674480336</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>91.56968311387365</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>74.41359048940473</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.6435962765432706</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.71387158226311</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T23" t="n">
         <v>204.4904184390135</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>102.9556971090159</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0844674480336</v>
+        <v>23.80374624508283</v>
       </c>
       <c r="H25" t="n">
         <v>145.2765484311146</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.7912950162003</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>75.21531362184737</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.0524962529722</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>46.61846331087241</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>112.1676968247093</v>
       </c>
       <c r="T26" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.0056336068635</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>308.7898844599791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>145.2765484311146</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>4.992062881710979</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>165.9832736032783</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>226.2073200826358</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.0524962529722</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0056336068635</v>
+        <v>164.041423516779</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.636558683342599</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>91.56968311387365</v>
       </c>
       <c r="S31" t="n">
-        <v>180.5600925859127</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.0524962529722</v>
       </c>
       <c r="H32" t="n">
-        <v>24.11428526059342</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>46.61846331087241</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>204.4904184390135</v>
+        <v>69.54170504930653</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0056336068635</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>91.56968311387365</v>
       </c>
       <c r="S34" t="n">
-        <v>190.7912950162003</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7995839928288</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>189.1602256839715</v>
       </c>
       <c r="W34" t="n">
-        <v>142.664813227134</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0524962529722</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>295.9470187896418</v>
+        <v>249.9721517553127</v>
       </c>
       <c r="I35" t="n">
         <v>46.61846331087241</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.51259831170871</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0056336068635</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>74.41359048940461</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>145.2765484311146</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>91.56968311387365</v>
       </c>
       <c r="S37" t="n">
-        <v>190.7912950162003</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>148.9855787746704</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,10 +25408,10 @@
         <v>411.0524962529722</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>166.6719139724765</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>46.61846331087241</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T38" t="n">
         <v>204.4904184390135</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0056336068635</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>221.780666094238</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0844674480336</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>91.56968311387365</v>
       </c>
       <c r="S40" t="n">
-        <v>190.7912950162003</v>
+        <v>74.41359048940473</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7995839928288</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>234.2344963410072</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.0524962529722</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I41" t="n">
-        <v>46.61846331087247</v>
+        <v>46.61846331087241</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>98.88223114522887</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0056336068635</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>354.7069455529302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>83.29694107999728</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.0844674480336</v>
       </c>
       <c r="H43" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>91.56968311387367</v>
+        <v>91.56968311387365</v>
       </c>
       <c r="S43" t="n">
-        <v>74.41359048940518</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>373.2392215833161</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>211.6480468632233</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0056336068635</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0844674480336</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>91.56968311387367</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>91.66438955754155</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>210.4439044243081</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718341.7120315837</v>
+        <v>718341.7120315835</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718341.7120315835</v>
+        <v>718341.7120315834</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>718341.7120315834</v>
+        <v>718341.7120315833</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>718341.7120315835</v>
+        <v>718341.7120315833</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718341.7120315835</v>
+        <v>718341.7120315834</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718341.7120315837</v>
+        <v>718341.7120315833</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718341.7120315835</v>
+        <v>718341.7120315834</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718341.7120315832</v>
+        <v>718341.7120315834</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>718341.7120315834</v>
+        <v>718341.7120315833</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573565.0770548703</v>
+        <v>573565.0770548704</v>
       </c>
       <c r="C2" t="n">
-        <v>573565.0770548702</v>
+        <v>573565.0770548705</v>
       </c>
       <c r="D2" t="n">
-        <v>573565.0770548702</v>
+        <v>573565.0770548704</v>
       </c>
       <c r="E2" t="n">
         <v>467152.0783353362</v>
       </c>
       <c r="F2" t="n">
-        <v>467152.0783353362</v>
+        <v>467152.0783353361</v>
       </c>
       <c r="G2" t="n">
-        <v>467152.0783353362</v>
+        <v>467152.0783353364</v>
       </c>
       <c r="H2" t="n">
-        <v>467152.0783353361</v>
+        <v>467152.0783353364</v>
       </c>
       <c r="I2" t="n">
         <v>467152.0783353363</v>
       </c>
       <c r="J2" t="n">
+        <v>467152.0783353364</v>
+      </c>
+      <c r="K2" t="n">
+        <v>467152.0783353363</v>
+      </c>
+      <c r="L2" t="n">
+        <v>467152.0783353366</v>
+      </c>
+      <c r="M2" t="n">
+        <v>467152.0783353364</v>
+      </c>
+      <c r="N2" t="n">
         <v>467152.0783353362</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>467152.0783353364</v>
-      </c>
-      <c r="L2" t="n">
-        <v>467152.0783353363</v>
-      </c>
-      <c r="M2" t="n">
-        <v>467152.0783353362</v>
-      </c>
-      <c r="N2" t="n">
-        <v>467152.0783353363</v>
-      </c>
-      <c r="O2" t="n">
-        <v>467152.0783353362</v>
       </c>
       <c r="P2" t="n">
         <v>467152.0783353363</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308183.8838205543</v>
+        <v>308183.8838205544</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>828786.5250348321</v>
+        <v>828786.5250348318</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26435,31 +26435,31 @@
         <v>18213.53979559088</v>
       </c>
       <c r="H4" t="n">
+        <v>18213.53979559089</v>
+      </c>
+      <c r="I4" t="n">
         <v>18213.53979559088</v>
       </c>
-      <c r="I4" t="n">
-        <v>18213.53979559089</v>
-      </c>
       <c r="J4" t="n">
-        <v>18213.5397955909</v>
+        <v>18213.53979559088</v>
       </c>
       <c r="K4" t="n">
-        <v>18213.53979559089</v>
+        <v>18213.53979559088</v>
       </c>
       <c r="L4" t="n">
-        <v>18213.53979559089</v>
+        <v>18213.53979559088</v>
       </c>
       <c r="M4" t="n">
-        <v>18213.5397955909</v>
+        <v>18213.53979559088</v>
       </c>
       <c r="N4" t="n">
-        <v>18213.53979559089</v>
+        <v>18213.53979559088</v>
       </c>
       <c r="O4" t="n">
-        <v>18213.53979559094</v>
+        <v>18213.53979559088</v>
       </c>
       <c r="P4" t="n">
-        <v>18213.53979559094</v>
+        <v>18213.53979559095</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>71173.54571211268</v>
       </c>
       <c r="F5" t="n">
-        <v>71173.54571211268</v>
+        <v>71173.54571211267</v>
       </c>
       <c r="G5" t="n">
         <v>71173.54571211267</v>
@@ -26490,13 +26490,13 @@
         <v>71173.54571211267</v>
       </c>
       <c r="I5" t="n">
+        <v>71173.54571211267</v>
+      </c>
+      <c r="J5" t="n">
+        <v>71173.54571211267</v>
+      </c>
+      <c r="K5" t="n">
         <v>71173.54571211265</v>
-      </c>
-      <c r="J5" t="n">
-        <v>71173.54571211265</v>
-      </c>
-      <c r="K5" t="n">
-        <v>71173.54571211267</v>
       </c>
       <c r="L5" t="n">
         <v>71173.54571211267</v>
@@ -26505,13 +26505,13 @@
         <v>71173.54571211267</v>
       </c>
       <c r="N5" t="n">
+        <v>71173.54571211265</v>
+      </c>
+      <c r="O5" t="n">
         <v>71173.54571211267</v>
       </c>
-      <c r="O5" t="n">
-        <v>71173.54571211265</v>
-      </c>
       <c r="P5" t="n">
-        <v>71173.54571211265</v>
+        <v>71173.54571211264</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134062.9337322308</v>
+        <v>-134104.5109411639</v>
       </c>
       <c r="C6" t="n">
-        <v>174120.9500883233</v>
+        <v>174079.3728793905</v>
       </c>
       <c r="D6" t="n">
-        <v>174120.9500883234</v>
+        <v>174079.3728793905</v>
       </c>
       <c r="E6" t="n">
-        <v>-451021.5322071994</v>
+        <v>-454863.5736561157</v>
       </c>
       <c r="F6" t="n">
-        <v>377764.9928276326</v>
+        <v>373922.9513787161</v>
       </c>
       <c r="G6" t="n">
-        <v>377764.9928276326</v>
+        <v>373922.9513787163</v>
       </c>
       <c r="H6" t="n">
-        <v>377764.9928276326</v>
+        <v>373922.9513787163</v>
       </c>
       <c r="I6" t="n">
-        <v>377764.9928276329</v>
+        <v>373922.9513787162</v>
       </c>
       <c r="J6" t="n">
-        <v>377764.9928276327</v>
+        <v>373922.9513787163</v>
       </c>
       <c r="K6" t="n">
-        <v>377764.9928276328</v>
+        <v>373922.9513787162</v>
       </c>
       <c r="L6" t="n">
-        <v>377764.9928276327</v>
+        <v>373922.9513787166</v>
       </c>
       <c r="M6" t="n">
-        <v>180510.3951433692</v>
+        <v>176668.3536944528</v>
       </c>
       <c r="N6" t="n">
-        <v>377764.9928276327</v>
+        <v>373922.9513787162</v>
       </c>
       <c r="O6" t="n">
-        <v>377764.9928276326</v>
+        <v>373922.9513787163</v>
       </c>
       <c r="P6" t="n">
-        <v>377764.9928276327</v>
+        <v>373922.9513787162</v>
       </c>
     </row>
   </sheetData>
@@ -26801,22 +26801,22 @@
         <v>791.5386497980109</v>
       </c>
       <c r="F4" t="n">
-        <v>791.5386497980109</v>
+        <v>791.5386497980106</v>
       </c>
       <c r="G4" t="n">
-        <v>791.5386497980107</v>
+        <v>791.5386497980106</v>
       </c>
       <c r="H4" t="n">
         <v>791.5386497980106</v>
       </c>
       <c r="I4" t="n">
-        <v>791.5386497980105</v>
+        <v>791.5386497980106</v>
       </c>
       <c r="J4" t="n">
+        <v>791.5386497980106</v>
+      </c>
+      <c r="K4" t="n">
         <v>791.5386497980104</v>
-      </c>
-      <c r="K4" t="n">
-        <v>791.5386497980106</v>
       </c>
       <c r="L4" t="n">
         <v>791.5386497980106</v>
@@ -26825,13 +26825,13 @@
         <v>791.5386497980106</v>
       </c>
       <c r="N4" t="n">
+        <v>791.5386497980104</v>
+      </c>
+      <c r="O4" t="n">
         <v>791.5386497980106</v>
       </c>
-      <c r="O4" t="n">
-        <v>791.5386497980104</v>
-      </c>
       <c r="P4" t="n">
-        <v>791.5386497980104</v>
+        <v>791.5386497980102</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>737.4262954649678</v>
+        <v>737.4262954649677</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>791.5386497980109</v>
+        <v>791.5386497980107</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>791.5386497980109</v>
+        <v>791.5386497980107</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27402,28 +27402,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K2" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L2" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M2" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P2" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R2" t="n">
         <v>134.8218408634681</v>
@@ -27478,13 +27478,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>75.83750674330534</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J3" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K3" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27499,10 +27499,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R3" t="n">
         <v>102.9682853879423</v>
@@ -27560,25 +27560,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>86.22083756629321</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K4" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L4" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M4" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N4" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O4" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q4" t="n">
         <v>103.2119976362414</v>
@@ -27639,7 +27639,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K5" t="n">
         <v>56.54227989916996</v>
@@ -27648,13 +27648,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P5" t="n">
         <v>46.34579576917247</v>
@@ -27715,10 +27715,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>75.83750674330534</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J6" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
         <v>26.75787480980772</v>
@@ -27797,7 +27797,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>86.22083756629321</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K7" t="n">
         <v>62.00809140979796</v>
@@ -27812,10 +27812,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q7" t="n">
         <v>103.2119976362414</v>
@@ -27876,28 +27876,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K8" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L8" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P8" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q8" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R8" t="n">
         <v>134.8218408634681</v>
@@ -27952,13 +27952,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I9" t="n">
-        <v>75.83750674330534</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K9" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27973,10 +27973,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q9" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R9" t="n">
         <v>102.9682853879423</v>
@@ -28034,25 +28034,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>86.22083756629321</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K10" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L10" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M10" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N10" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q10" t="n">
         <v>103.2119976362414</v>
@@ -31047,16 +31047,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I2" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J2" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K2" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L2" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M2" t="n">
         <v>225.7600302817866</v>
@@ -31074,13 +31074,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S2" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T2" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U2" t="n">
         <v>0.1028570752958528</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H3" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I3" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K3" t="n">
         <v>111.0835641645513</v>
@@ -31147,22 +31147,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R3" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S3" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H4" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I4" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K4" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L4" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M4" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N4" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O4" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P4" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R4" t="n">
         <v>25.93173355231669</v>
@@ -31287,7 +31287,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K5" t="n">
         <v>163.5475711458106</v>
@@ -31311,13 +31311,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R5" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S5" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T5" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U5" t="n">
         <v>0.1028570752958528</v>
@@ -31366,7 +31366,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J6" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K6" t="n">
         <v>111.0835641645513</v>
@@ -31396,7 +31396,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T6" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U6" t="n">
         <v>0.04525771959877963</v>
@@ -31439,13 +31439,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I7" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J7" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K7" t="n">
         <v>67.00516676073742</v>
@@ -31460,10 +31460,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P7" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q7" t="n">
         <v>48.29300399320443</v>
@@ -31521,16 +31521,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I8" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J8" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K8" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L8" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M8" t="n">
         <v>225.7600302817866</v>
@@ -31548,13 +31548,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R8" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S8" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T8" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U8" t="n">
         <v>0.1028570752958528</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H9" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I9" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J9" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K9" t="n">
         <v>111.0835641645513</v>
@@ -31621,22 +31621,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R9" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S9" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T9" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,37 +31673,37 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H10" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I10" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J10" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K10" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L10" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M10" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N10" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O10" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P10" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R10" t="n">
         <v>25.93173355231669</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.250241262162852</v>
+        <v>4.250241262162851</v>
       </c>
       <c r="H17" t="n">
-        <v>43.52778332612532</v>
+        <v>43.52778332612531</v>
       </c>
       <c r="I17" t="n">
         <v>163.8574262595335</v>
@@ -32238,37 +32238,37 @@
         <v>360.7339143244947</v>
       </c>
       <c r="K17" t="n">
-        <v>540.6466269518484</v>
+        <v>540.6466269518482</v>
       </c>
       <c r="L17" t="n">
-        <v>670.7199479787649</v>
+        <v>670.7199479787647</v>
       </c>
       <c r="M17" t="n">
-        <v>746.3051760247535</v>
+        <v>746.3051760247533</v>
       </c>
       <c r="N17" t="n">
-        <v>758.3811740108738</v>
+        <v>758.3811740108736</v>
       </c>
       <c r="O17" t="n">
-        <v>716.1178374602418</v>
+        <v>716.1178374602417</v>
       </c>
       <c r="P17" t="n">
-        <v>611.1900063005963</v>
+        <v>611.1900063005962</v>
       </c>
       <c r="Q17" t="n">
-        <v>458.978241099389</v>
+        <v>458.9782410993889</v>
       </c>
       <c r="R17" t="n">
         <v>266.9842176843375</v>
       </c>
       <c r="S17" t="n">
-        <v>96.85237276153609</v>
+        <v>96.85237276153607</v>
       </c>
       <c r="T17" t="n">
-        <v>18.6054311251179</v>
+        <v>18.60543112511789</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3400193009730281</v>
+        <v>0.340019300973028</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.274079558335532</v>
+        <v>2.274079558335531</v>
       </c>
       <c r="H18" t="n">
         <v>21.96282099760895</v>
       </c>
       <c r="I18" t="n">
-        <v>78.29616023216634</v>
+        <v>78.29616023216633</v>
       </c>
       <c r="J18" t="n">
         <v>214.8506480969548</v>
       </c>
       <c r="K18" t="n">
-        <v>367.2139785054354</v>
+        <v>367.2139785054353</v>
       </c>
       <c r="L18" t="n">
-        <v>493.7645111201776</v>
+        <v>493.7645111201775</v>
       </c>
       <c r="M18" t="n">
-        <v>576.1998951098406</v>
+        <v>576.1998951098404</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4501917970996</v>
+        <v>591.4501917970994</v>
       </c>
       <c r="O18" t="n">
-        <v>541.0613763202964</v>
+        <v>541.0613763202963</v>
       </c>
       <c r="P18" t="n">
         <v>434.2494553105806</v>
       </c>
       <c r="Q18" t="n">
-        <v>290.2842608149005</v>
+        <v>290.2842608149004</v>
       </c>
       <c r="R18" t="n">
         <v>141.1924132798149</v>
       </c>
       <c r="S18" t="n">
-        <v>42.24003039276742</v>
+        <v>42.2400303927674</v>
       </c>
       <c r="T18" t="n">
-        <v>9.166136465396285</v>
+        <v>9.166136465396283</v>
       </c>
       <c r="U18" t="n">
         <v>0.1496104972589166</v>
@@ -32387,43 +32387,43 @@
         <v>1.9065119104251</v>
       </c>
       <c r="H19" t="n">
-        <v>16.950624076325</v>
+        <v>16.95062407632499</v>
       </c>
       <c r="I19" t="n">
-        <v>57.33401272442031</v>
+        <v>57.3340127244203</v>
       </c>
       <c r="J19" t="n">
         <v>134.7903920670546</v>
       </c>
       <c r="K19" t="n">
-        <v>221.5020201384798</v>
+        <v>221.5020201384797</v>
       </c>
       <c r="L19" t="n">
-        <v>283.4463253008373</v>
+        <v>283.4463253008372</v>
       </c>
       <c r="M19" t="n">
         <v>298.8544079223636</v>
       </c>
       <c r="N19" t="n">
-        <v>291.7483180744158</v>
+        <v>291.7483180744157</v>
       </c>
       <c r="O19" t="n">
         <v>269.4767925753588</v>
       </c>
       <c r="P19" t="n">
-        <v>230.5839496026866</v>
+        <v>230.5839496026865</v>
       </c>
       <c r="Q19" t="n">
-        <v>159.6443746084146</v>
+        <v>159.6443746084145</v>
       </c>
       <c r="R19" t="n">
-        <v>85.72370826329585</v>
+        <v>85.72370826329583</v>
       </c>
       <c r="S19" t="n">
-        <v>33.22530302077197</v>
+        <v>33.22530302077196</v>
       </c>
       <c r="T19" t="n">
-        <v>8.146005435452699</v>
+        <v>8.146005435452697</v>
       </c>
       <c r="U19" t="n">
         <v>0.1039915587504601</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.250241262162852</v>
+        <v>4.250241262162851</v>
       </c>
       <c r="H20" t="n">
-        <v>43.52778332612532</v>
+        <v>43.52778332612531</v>
       </c>
       <c r="I20" t="n">
         <v>163.8574262595335</v>
@@ -32475,37 +32475,37 @@
         <v>360.7339143244947</v>
       </c>
       <c r="K20" t="n">
-        <v>540.6466269518484</v>
+        <v>540.6466269518482</v>
       </c>
       <c r="L20" t="n">
-        <v>670.7199479787649</v>
+        <v>670.7199479787647</v>
       </c>
       <c r="M20" t="n">
-        <v>746.3051760247535</v>
+        <v>746.3051760247533</v>
       </c>
       <c r="N20" t="n">
-        <v>758.3811740108738</v>
+        <v>758.3811740108736</v>
       </c>
       <c r="O20" t="n">
-        <v>716.1178374602418</v>
+        <v>716.1178374602417</v>
       </c>
       <c r="P20" t="n">
-        <v>611.1900063005963</v>
+        <v>611.1900063005962</v>
       </c>
       <c r="Q20" t="n">
-        <v>458.978241099389</v>
+        <v>458.9782410993889</v>
       </c>
       <c r="R20" t="n">
         <v>266.9842176843375</v>
       </c>
       <c r="S20" t="n">
-        <v>96.85237276153609</v>
+        <v>96.85237276153607</v>
       </c>
       <c r="T20" t="n">
-        <v>18.6054311251179</v>
+        <v>18.60543112511789</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3400193009730281</v>
+        <v>0.340019300973028</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.274079558335532</v>
+        <v>2.274079558335531</v>
       </c>
       <c r="H21" t="n">
         <v>21.96282099760895</v>
       </c>
       <c r="I21" t="n">
-        <v>78.29616023216634</v>
+        <v>78.29616023216633</v>
       </c>
       <c r="J21" t="n">
         <v>214.8506480969548</v>
       </c>
       <c r="K21" t="n">
-        <v>367.2139785054354</v>
+        <v>367.2139785054353</v>
       </c>
       <c r="L21" t="n">
-        <v>493.7645111201776</v>
+        <v>493.7645111201775</v>
       </c>
       <c r="M21" t="n">
-        <v>576.1998951098406</v>
+        <v>576.1998951098404</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4501917970996</v>
+        <v>591.4501917970994</v>
       </c>
       <c r="O21" t="n">
-        <v>541.0613763202964</v>
+        <v>541.0613763202963</v>
       </c>
       <c r="P21" t="n">
         <v>434.2494553105806</v>
       </c>
       <c r="Q21" t="n">
-        <v>290.2842608149005</v>
+        <v>290.2842608149004</v>
       </c>
       <c r="R21" t="n">
         <v>141.1924132798149</v>
       </c>
       <c r="S21" t="n">
-        <v>42.24003039276742</v>
+        <v>42.2400303927674</v>
       </c>
       <c r="T21" t="n">
-        <v>9.166136465396285</v>
+        <v>9.166136465396283</v>
       </c>
       <c r="U21" t="n">
         <v>0.1496104972589166</v>
@@ -32624,43 +32624,43 @@
         <v>1.9065119104251</v>
       </c>
       <c r="H22" t="n">
-        <v>16.950624076325</v>
+        <v>16.95062407632499</v>
       </c>
       <c r="I22" t="n">
-        <v>57.33401272442031</v>
+        <v>57.3340127244203</v>
       </c>
       <c r="J22" t="n">
         <v>134.7903920670546</v>
       </c>
       <c r="K22" t="n">
-        <v>221.5020201384798</v>
+        <v>221.5020201384797</v>
       </c>
       <c r="L22" t="n">
-        <v>283.4463253008373</v>
+        <v>283.4463253008372</v>
       </c>
       <c r="M22" t="n">
         <v>298.8544079223636</v>
       </c>
       <c r="N22" t="n">
-        <v>291.7483180744158</v>
+        <v>291.7483180744157</v>
       </c>
       <c r="O22" t="n">
         <v>269.4767925753588</v>
       </c>
       <c r="P22" t="n">
-        <v>230.5839496026866</v>
+        <v>230.5839496026865</v>
       </c>
       <c r="Q22" t="n">
-        <v>159.6443746084146</v>
+        <v>159.6443746084145</v>
       </c>
       <c r="R22" t="n">
-        <v>85.72370826329585</v>
+        <v>85.72370826329583</v>
       </c>
       <c r="S22" t="n">
-        <v>33.22530302077197</v>
+        <v>33.22530302077196</v>
       </c>
       <c r="T22" t="n">
-        <v>8.146005435452699</v>
+        <v>8.146005435452697</v>
       </c>
       <c r="U22" t="n">
         <v>0.1039915587504601</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.25024126216285</v>
+        <v>4.250241262162851</v>
       </c>
       <c r="H41" t="n">
-        <v>43.5277833261253</v>
+        <v>43.52778332612531</v>
       </c>
       <c r="I41" t="n">
-        <v>163.8574262595334</v>
+        <v>163.8574262595335</v>
       </c>
       <c r="J41" t="n">
-        <v>360.7339143244945</v>
+        <v>360.7339143244947</v>
       </c>
       <c r="K41" t="n">
-        <v>540.6466269518481</v>
+        <v>540.6466269518482</v>
       </c>
       <c r="L41" t="n">
-        <v>670.7199479787646</v>
+        <v>670.7199479787647</v>
       </c>
       <c r="M41" t="n">
-        <v>746.3051760247531</v>
+        <v>746.3051760247533</v>
       </c>
       <c r="N41" t="n">
-        <v>758.3811740108735</v>
+        <v>758.3811740108736</v>
       </c>
       <c r="O41" t="n">
-        <v>716.1178374602415</v>
+        <v>716.1178374602417</v>
       </c>
       <c r="P41" t="n">
-        <v>611.1900063005961</v>
+        <v>611.1900063005962</v>
       </c>
       <c r="Q41" t="n">
-        <v>458.9782410993888</v>
+        <v>458.9782410993889</v>
       </c>
       <c r="R41" t="n">
-        <v>266.9842176843374</v>
+        <v>266.9842176843375</v>
       </c>
       <c r="S41" t="n">
-        <v>96.85237276153605</v>
+        <v>96.85237276153607</v>
       </c>
       <c r="T41" t="n">
         <v>18.60543112511789</v>
@@ -34204,43 +34204,43 @@
         <v>2.274079558335531</v>
       </c>
       <c r="H42" t="n">
-        <v>21.96282099760894</v>
+        <v>21.96282099760895</v>
       </c>
       <c r="I42" t="n">
-        <v>78.2961602321663</v>
+        <v>78.29616023216633</v>
       </c>
       <c r="J42" t="n">
-        <v>214.8506480969547</v>
+        <v>214.8506480969548</v>
       </c>
       <c r="K42" t="n">
         <v>367.2139785054353</v>
       </c>
       <c r="L42" t="n">
-        <v>493.7645111201774</v>
+        <v>493.7645111201775</v>
       </c>
       <c r="M42" t="n">
-        <v>576.1998951098403</v>
+        <v>576.1998951098404</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4501917970993</v>
+        <v>591.4501917970994</v>
       </c>
       <c r="O42" t="n">
-        <v>541.0613763202962</v>
+        <v>541.0613763202963</v>
       </c>
       <c r="P42" t="n">
-        <v>434.2494553105805</v>
+        <v>434.2494553105806</v>
       </c>
       <c r="Q42" t="n">
         <v>290.2842608149004</v>
       </c>
       <c r="R42" t="n">
-        <v>141.1924132798148</v>
+        <v>141.1924132798149</v>
       </c>
       <c r="S42" t="n">
-        <v>42.24003039276739</v>
+        <v>42.2400303927674</v>
       </c>
       <c r="T42" t="n">
-        <v>9.16613646539628</v>
+        <v>9.166136465396283</v>
       </c>
       <c r="U42" t="n">
         <v>0.1496104972589166</v>
@@ -34286,25 +34286,25 @@
         <v>16.95062407632499</v>
       </c>
       <c r="I43" t="n">
-        <v>57.33401272442028</v>
+        <v>57.3340127244203</v>
       </c>
       <c r="J43" t="n">
-        <v>134.7903920670545</v>
+        <v>134.7903920670546</v>
       </c>
       <c r="K43" t="n">
         <v>221.5020201384797</v>
       </c>
       <c r="L43" t="n">
-        <v>283.4463253008371</v>
+        <v>283.4463253008372</v>
       </c>
       <c r="M43" t="n">
-        <v>298.8544079223635</v>
+        <v>298.8544079223636</v>
       </c>
       <c r="N43" t="n">
-        <v>291.7483180744156</v>
+        <v>291.7483180744157</v>
       </c>
       <c r="O43" t="n">
-        <v>269.4767925753587</v>
+        <v>269.4767925753588</v>
       </c>
       <c r="P43" t="n">
         <v>230.5839496026865</v>
@@ -34313,10 +34313,10 @@
         <v>159.6443746084145</v>
       </c>
       <c r="R43" t="n">
-        <v>85.72370826329582</v>
+        <v>85.72370826329583</v>
       </c>
       <c r="S43" t="n">
-        <v>33.22530302077195</v>
+        <v>33.22530302077196</v>
       </c>
       <c r="T43" t="n">
         <v>8.146005435452697</v>
@@ -34392,7 +34392,7 @@
         <v>458.9782410993888</v>
       </c>
       <c r="R44" t="n">
-        <v>266.9842176843387</v>
+        <v>266.9842176843374</v>
       </c>
       <c r="S44" t="n">
         <v>96.85237276153605</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.01302143028812</v>
+        <v>190.3396241747354</v>
       </c>
       <c r="K12" t="n">
         <v>229.3725395310764</v>
       </c>
       <c r="L12" t="n">
-        <v>457.5367340847507</v>
+        <v>355.2101313403035</v>
       </c>
       <c r="M12" t="n">
         <v>434.0658611878222</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.01302143028812</v>
+        <v>190.3396241747354</v>
       </c>
       <c r="K15" t="n">
         <v>229.3725395310764</v>
@@ -35746,7 +35746,7 @@
         <v>300.2750478962504</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.6290894733264</v>
+        <v>150.302486728879</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>179.6880097978084</v>
       </c>
       <c r="K17" t="n">
-        <v>320.5567759068678</v>
+        <v>320.5567759068677</v>
       </c>
       <c r="L17" t="n">
-        <v>434.9535330087777</v>
+        <v>434.9535330087775</v>
       </c>
       <c r="M17" t="n">
-        <v>515.9589427974807</v>
+        <v>515.9589427974806</v>
       </c>
       <c r="N17" t="n">
-        <v>528.9681104142828</v>
+        <v>528.9681104142826</v>
       </c>
       <c r="O17" t="n">
-        <v>486.0196260385551</v>
+        <v>486.019626038555</v>
       </c>
       <c r="P17" t="n">
-        <v>379.9570105453268</v>
+        <v>379.9570105453267</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.6725512249396</v>
+        <v>236.6725512249394</v>
       </c>
       <c r="R17" t="n">
-        <v>51.3986798702054</v>
+        <v>51.39867987020534</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.3050450475636</v>
+        <v>190.3396241747356</v>
       </c>
       <c r="K18" t="n">
-        <v>229.3725395310764</v>
+        <v>229.3725395310763</v>
       </c>
       <c r="L18" t="n">
-        <v>355.2101313403035</v>
+        <v>355.2101313403033</v>
       </c>
       <c r="M18" t="n">
-        <v>434.0658611878222</v>
+        <v>434.0658611878221</v>
       </c>
       <c r="N18" t="n">
-        <v>460.1084797137663</v>
+        <v>460.1084797137661</v>
       </c>
       <c r="O18" t="n">
-        <v>398.465131875852</v>
+        <v>398.4651318758519</v>
       </c>
       <c r="P18" t="n">
-        <v>300.2750478962504</v>
+        <v>300.2750478962503</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.302486728879</v>
+        <v>150.3024867288789</v>
       </c>
       <c r="R18" t="n">
-        <v>41.03457912717177</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.43121195038182</v>
+        <v>41.43121195038179</v>
       </c>
       <c r="K19" t="n">
         <v>199.2325283125969</v>
       </c>
       <c r="L19" t="n">
-        <v>311.0363505611534</v>
+        <v>311.0363505611533</v>
       </c>
       <c r="M19" t="n">
         <v>338.4382848842042</v>
@@ -36059,10 +36059,10 @@
         <v>294.0619204893985</v>
       </c>
       <c r="P19" t="n">
-        <v>227.8625088675801</v>
+        <v>227.86250886758</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.48233135672017</v>
+        <v>73.48233135672014</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>179.6880097978084</v>
       </c>
       <c r="K20" t="n">
-        <v>320.5567759068678</v>
+        <v>320.5567759068677</v>
       </c>
       <c r="L20" t="n">
-        <v>434.9535330087777</v>
+        <v>434.9535330087775</v>
       </c>
       <c r="M20" t="n">
-        <v>515.9589427974807</v>
+        <v>515.9589427974806</v>
       </c>
       <c r="N20" t="n">
-        <v>528.9681104142828</v>
+        <v>528.9681104142826</v>
       </c>
       <c r="O20" t="n">
-        <v>486.0196260385551</v>
+        <v>486.019626038555</v>
       </c>
       <c r="P20" t="n">
-        <v>379.9570105453268</v>
+        <v>379.9570105453267</v>
       </c>
       <c r="Q20" t="n">
-        <v>236.6725512249396</v>
+        <v>236.6725512249394</v>
       </c>
       <c r="R20" t="n">
-        <v>51.3986798702054</v>
+        <v>51.39867987020534</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.3050450475637</v>
+        <v>190.3396241747356</v>
       </c>
       <c r="K21" t="n">
-        <v>229.3725395310764</v>
+        <v>229.3725395310763</v>
       </c>
       <c r="L21" t="n">
-        <v>355.2101313403035</v>
+        <v>355.2101313403033</v>
       </c>
       <c r="M21" t="n">
-        <v>434.0658611878222</v>
+        <v>434.0658611878221</v>
       </c>
       <c r="N21" t="n">
-        <v>460.1084797137663</v>
+        <v>460.1084797137661</v>
       </c>
       <c r="O21" t="n">
-        <v>398.465131875852</v>
+        <v>398.4651318758519</v>
       </c>
       <c r="P21" t="n">
-        <v>300.2750478962504</v>
+        <v>300.2750478962503</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.302486728879</v>
+        <v>150.3024867288789</v>
       </c>
       <c r="R21" t="n">
-        <v>41.03457912717177</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.43121195038182</v>
+        <v>41.43121195038179</v>
       </c>
       <c r="K22" t="n">
         <v>199.2325283125969</v>
       </c>
       <c r="L22" t="n">
-        <v>311.0363505611534</v>
+        <v>311.0363505611533</v>
       </c>
       <c r="M22" t="n">
         <v>338.4382848842042</v>
@@ -36296,10 +36296,10 @@
         <v>294.0619204893985</v>
       </c>
       <c r="P22" t="n">
-        <v>227.8625088675801</v>
+        <v>227.86250886758</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.48233135672017</v>
+        <v>73.48233135672014</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.01302143028806</v>
+        <v>149.3050450475639</v>
       </c>
       <c r="K24" t="n">
         <v>229.3725395310763</v>
@@ -36445,7 +36445,7 @@
         <v>355.2101313403033</v>
       </c>
       <c r="M24" t="n">
-        <v>536.3924639322697</v>
+        <v>434.0658611878221</v>
       </c>
       <c r="N24" t="n">
         <v>460.1084797137661</v>
@@ -36460,7 +36460,7 @@
         <v>150.3024867288789</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>41.03457912717174</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.01302143028806</v>
+        <v>149.3050450475639</v>
       </c>
       <c r="K27" t="n">
         <v>229.3725395310763</v>
@@ -36694,10 +36694,10 @@
         <v>300.2750478962503</v>
       </c>
       <c r="Q27" t="n">
-        <v>252.6290894733269</v>
+        <v>150.3024867288789</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>41.03457912717174</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.01302143028806</v>
+        <v>190.3396241747356</v>
       </c>
       <c r="K30" t="n">
         <v>229.3725395310763</v>
@@ -36922,7 +36922,7 @@
         <v>434.0658611878221</v>
       </c>
       <c r="N30" t="n">
-        <v>562.4350824582137</v>
+        <v>460.1084797137661</v>
       </c>
       <c r="O30" t="n">
         <v>398.4651318758519</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.01302143028806</v>
+        <v>149.3050450475639</v>
       </c>
       <c r="K33" t="n">
         <v>229.3725395310763</v>
@@ -37159,7 +37159,7 @@
         <v>434.0658611878221</v>
       </c>
       <c r="N33" t="n">
-        <v>562.4350824582137</v>
+        <v>460.1084797137661</v>
       </c>
       <c r="O33" t="n">
         <v>398.4651318758519</v>
@@ -37171,7 +37171,7 @@
         <v>150.3024867288789</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.03457912717174</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.01302143028806</v>
+        <v>149.3050450475639</v>
       </c>
       <c r="K36" t="n">
         <v>229.3725395310763</v>
@@ -37405,10 +37405,10 @@
         <v>300.2750478962503</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.6290894733269</v>
+        <v>150.3024867288789</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>41.03457912717174</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.01302143028806</v>
+        <v>149.3050450475639</v>
       </c>
       <c r="K39" t="n">
         <v>229.3725395310763</v>
@@ -37636,7 +37636,7 @@
         <v>460.1084797137661</v>
       </c>
       <c r="O39" t="n">
-        <v>500.7917346202997</v>
+        <v>398.4651318758519</v>
       </c>
       <c r="P39" t="n">
         <v>300.2750478962503</v>
@@ -37645,7 +37645,7 @@
         <v>150.3024867288789</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>41.03457912717174</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>179.6880097978083</v>
+        <v>179.6880097978084</v>
       </c>
       <c r="K41" t="n">
-        <v>320.5567759068676</v>
+        <v>320.5567759068677</v>
       </c>
       <c r="L41" t="n">
-        <v>434.9535330087774</v>
+        <v>434.9535330087775</v>
       </c>
       <c r="M41" t="n">
-        <v>515.9589427974804</v>
+        <v>515.9589427974806</v>
       </c>
       <c r="N41" t="n">
         <v>528.9681104142826</v>
       </c>
       <c r="O41" t="n">
-        <v>486.0196260385547</v>
+        <v>486.019626038555</v>
       </c>
       <c r="P41" t="n">
-        <v>379.9570105453266</v>
+        <v>379.9570105453267</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.6725512249393</v>
+        <v>236.6725512249394</v>
       </c>
       <c r="R41" t="n">
-        <v>51.39867987020529</v>
+        <v>51.39867987020534</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.01302143028801</v>
+        <v>149.3050450475639</v>
       </c>
       <c r="K42" t="n">
-        <v>331.6991422755257</v>
+        <v>229.3725395310763</v>
       </c>
       <c r="L42" t="n">
-        <v>355.2101313403032</v>
+        <v>355.2101313403033</v>
       </c>
       <c r="M42" t="n">
-        <v>434.065861187822</v>
+        <v>434.0658611878221</v>
       </c>
       <c r="N42" t="n">
-        <v>460.108479713766</v>
+        <v>460.1084797137661</v>
       </c>
       <c r="O42" t="n">
-        <v>398.4651318758517</v>
+        <v>398.4651318758519</v>
       </c>
       <c r="P42" t="n">
-        <v>300.2750478962502</v>
+        <v>300.2750478962503</v>
       </c>
       <c r="Q42" t="n">
         <v>150.3024867288789</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>41.03457912717174</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>41.43121195038177</v>
+        <v>41.43121195038179</v>
       </c>
       <c r="K43" t="n">
         <v>199.2325283125969</v>
@@ -37946,19 +37946,19 @@
         <v>311.0363505611533</v>
       </c>
       <c r="M43" t="n">
-        <v>338.4382848842041</v>
+        <v>338.4382848842042</v>
       </c>
       <c r="N43" t="n">
-        <v>335.8804904536443</v>
+        <v>335.8804904536444</v>
       </c>
       <c r="O43" t="n">
-        <v>294.0619204893984</v>
+        <v>294.0619204893985</v>
       </c>
       <c r="P43" t="n">
         <v>227.86250886758</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.48233135672011</v>
+        <v>73.48233135672014</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>236.6725512249393</v>
       </c>
       <c r="R44" t="n">
-        <v>51.39867987020651</v>
+        <v>51.39867987020529</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>190.3396241747374</v>
+        <v>149.3050450475662</v>
       </c>
       <c r="K45" t="n">
         <v>229.3725395310763</v>
@@ -38119,7 +38119,7 @@
         <v>150.3024867288789</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>41.03457912717171</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
